--- a/sriramModel-nelson-melancholic-patientID_60-sims-acth-5-iterations.xlsx
+++ b/sriramModel-nelson-melancholic-patientID_60-sims-acth-5-iterations.xlsx
@@ -394,19 +394,19 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>26.85169639669804</v>
+        <v>26.83050028602971</v>
       </c>
       <c r="C2">
-        <v>26.83416551465221</v>
+        <v>26.84350765726143</v>
       </c>
       <c r="D2">
-        <v>26.84649998707843</v>
+        <v>26.81859425037992</v>
       </c>
       <c r="E2">
-        <v>26.92696342848554</v>
+        <v>26.96560033893351</v>
       </c>
       <c r="F2">
-        <v>26.81860575758103</v>
+        <v>26.81855229686633</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -414,19 +414,19 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>26.81555904397175</v>
+        <v>26.77472164785705</v>
       </c>
       <c r="C3">
-        <v>26.7812519883986</v>
+        <v>26.80022208110964</v>
       </c>
       <c r="D3">
-        <v>26.80656078441639</v>
+        <v>26.75037828591657</v>
       </c>
       <c r="E3">
-        <v>26.96339471841649</v>
+        <v>27.04008144871944</v>
       </c>
       <c r="F3">
-        <v>26.75039090110791</v>
+        <v>26.75028207858686</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -434,19 +434,19 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>26.7915348993269</v>
+        <v>26.73256636742265</v>
       </c>
       <c r="C4">
-        <v>26.74121377655621</v>
+        <v>26.77005249302477</v>
       </c>
       <c r="D4">
-        <v>26.78009772763407</v>
+        <v>26.695328975722</v>
       </c>
       <c r="E4">
-        <v>27.00927078353161</v>
+        <v>27.12341876543647</v>
       </c>
       <c r="F4">
-        <v>26.69532991445394</v>
+        <v>26.69516595905242</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -454,19 +454,19 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>26.77957905658235</v>
+        <v>26.70394053318972</v>
       </c>
       <c r="C5">
-        <v>26.71400678452536</v>
+        <v>26.75291403580438</v>
       </c>
       <c r="D5">
-        <v>26.76703028535358</v>
+        <v>26.65342350942914</v>
       </c>
       <c r="E5">
-        <v>27.06456860657347</v>
+        <v>27.21558774716542</v>
       </c>
       <c r="F5">
-        <v>26.6533978987485</v>
+        <v>26.65318083998948</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -474,19 +474,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>26.77965260566299</v>
+        <v>26.68875407968001</v>
       </c>
       <c r="C6">
-        <v>26.69958857578493</v>
+        <v>26.74872725960566</v>
       </c>
       <c r="D6">
-        <v>26.76728203887115</v>
+        <v>26.62463958066892</v>
       </c>
       <c r="E6">
-        <v>27.12926539481938</v>
+        <v>27.31656405435411</v>
       </c>
       <c r="F6">
-        <v>26.62457072920479</v>
+        <v>26.62430408844556</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -494,19 +494,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>26.79172105158574</v>
+        <v>26.68692038389475</v>
       </c>
       <c r="C7">
-        <v>26.69791816544305</v>
+        <v>26.75741750120445</v>
       </c>
       <c r="D7">
-        <v>26.78078017516028</v>
+        <v>26.60895533375357</v>
       </c>
       <c r="E7">
-        <v>27.20333856730494</v>
+        <v>27.42632354717445</v>
       </c>
       <c r="F7">
-        <v>26.60882495830073</v>
+        <v>26.60851348159443</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -514,19 +514,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>26.81575332197678</v>
+        <v>26.69835603168375</v>
       </c>
       <c r="C8">
-        <v>26.70895589133259</v>
+        <v>26.77891434028725</v>
       </c>
       <c r="D8">
-        <v>26.80745519182523</v>
+        <v>26.6063493323648</v>
       </c>
       <c r="E8">
-        <v>27.28676574266719</v>
+        <v>27.54484228078273</v>
       </c>
       <c r="F8">
-        <v>26.60613775729504</v>
+        <v>26.60578717217061</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -534,19 +534,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>26.8517210187923</v>
+        <v>26.72298062242496</v>
       </c>
       <c r="C9">
-        <v>26.73266330796735</v>
+        <v>26.8131512083231</v>
       </c>
       <c r="D9">
-        <v>26.84724065064126</v>
+        <v>26.61680053306218</v>
       </c>
       <c r="E9">
-        <v>27.37952472714351</v>
+        <v>27.67209650242771</v>
       </c>
       <c r="F9">
-        <v>26.61648686821928</v>
+        <v>26.61610365786907</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -554,19 +554,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>26.89959786567043</v>
+        <v>26.76071655156289</v>
       </c>
       <c r="C10">
-        <v>26.76900307522906</v>
+        <v>26.86006501634269</v>
       </c>
       <c r="D10">
-        <v>26.90007291523758</v>
+        <v>26.6402882568269</v>
       </c>
       <c r="E10">
-        <v>27.48159349535894</v>
+        <v>27.80806264385169</v>
       </c>
       <c r="F10">
-        <v>26.63985055362561</v>
+        <v>26.63944174751605</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -574,19 +574,19 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>26.95935929818408</v>
+        <v>26.81148880990028</v>
       </c>
       <c r="C11">
-        <v>26.81793885012014</v>
+        <v>26.91959580979323</v>
       </c>
       <c r="D11">
-        <v>26.96589091362824</v>
+        <v>26.67679216097318</v>
       </c>
       <c r="E11">
-        <v>27.59295017468804</v>
+        <v>27.95271731477762</v>
       </c>
       <c r="F11">
-        <v>26.67620754928914</v>
+        <v>26.67578052820505</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -594,19 +594,19 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>27.0309821643475</v>
+        <v>26.87522482015232</v>
       </c>
       <c r="C12">
-        <v>26.87943519759164</v>
+        <v>26.99168646910372</v>
       </c>
       <c r="D12">
-        <v>27.0446359538478</v>
+        <v>26.72629221562699</v>
       </c>
       <c r="E12">
-        <v>27.71357303282666</v>
+        <v>28.10603729742327</v>
       </c>
       <c r="F12">
-        <v>26.72553702601737</v>
+        <v>26.72509933639405</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -614,19 +614,19 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>27.11444445186003</v>
+        <v>26.95185427802384</v>
       </c>
       <c r="C13">
-        <v>26.9534575095474</v>
+        <v>27.07628245202154</v>
       </c>
       <c r="D13">
-        <v>27.13625154291145</v>
+        <v>26.78876868144811</v>
       </c>
       <c r="E13">
-        <v>27.84344046166562</v>
+        <v>28.26799954078378</v>
       </c>
       <c r="F13">
-        <v>26.78781855536484</v>
+        <v>26.78737773048589</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -634,19 +634,19 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>27.20972510144391</v>
+        <v>27.04130901509627</v>
       </c>
       <c r="C14">
-        <v>27.03997191698856</v>
+        <v>27.17333157272337</v>
       </c>
       <c r="D14">
-        <v>27.2406831963241</v>
+        <v>26.86420208606019</v>
       </c>
       <c r="E14">
-        <v>27.98253095896952</v>
+        <v>28.4385811529595</v>
       </c>
       <c r="F14">
-        <v>26.86303207285533</v>
+        <v>26.86259545992223</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -654,19 +654,19 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>27.31680384576579</v>
+        <v>27.14352285338882</v>
       </c>
       <c r="C15">
-        <v>27.13894522936843</v>
+        <v>27.28278380387661</v>
       </c>
       <c r="D15">
-        <v>27.35787835483247</v>
+        <v>26.95257320531954</v>
       </c>
       <c r="E15">
-        <v>28.13082310963762</v>
+        <v>28.61775939289875</v>
       </c>
       <c r="F15">
-        <v>26.95115785256878</v>
+        <v>26.95073244153788</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -674,19 +674,19 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>27.43566108837562</v>
+        <v>27.25843146126159</v>
       </c>
       <c r="C16">
-        <v>27.25034486367671</v>
+        <v>27.40459109283734</v>
       </c>
       <c r="D16">
-        <v>27.48778617715815</v>
+        <v>27.05386304463898</v>
       </c>
       <c r="E16">
-        <v>28.28829556690989</v>
+        <v>28.80551166268526</v>
       </c>
       <c r="F16">
-        <v>27.05217647882575</v>
+        <v>27.0517687340937</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -694,19 +694,19 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>27.56627778492927</v>
+        <v>27.38597222864881</v>
       </c>
       <c r="C17">
-        <v>27.37413874958682</v>
+        <v>27.5387071922717</v>
       </c>
       <c r="D17">
-        <v>27.63035740919619</v>
+        <v>27.16805280894816</v>
       </c>
       <c r="E17">
-        <v>28.45492703143979</v>
+        <v>29.0018154955609</v>
       </c>
       <c r="F17">
-        <v>27.16606880639867</v>
+        <v>27.16568449828017</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -714,19 +714,19 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>27.70863533361927</v>
+        <v>27.52608415795827</v>
       </c>
       <c r="C18">
-        <v>27.51029527299696</v>
+        <v>27.68508750787073</v>
       </c>
       <c r="D18">
-        <v>27.78554427967251</v>
+        <v>27.29512388330081</v>
       </c>
       <c r="E18">
-        <v>28.63069622804254</v>
+        <v>29.20664854490641</v>
       </c>
       <c r="F18">
-        <v>27.29281593761697</v>
+        <v>27.29245997019821</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -734,19 +734,19 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>27.8627155043692</v>
+        <v>27.67870776419841</v>
       </c>
       <c r="C19">
-        <v>27.65878322434939</v>
+        <v>27.84368896119871</v>
       </c>
       <c r="D19">
-        <v>27.95330039852082</v>
+        <v>27.43505781525089</v>
       </c>
       <c r="E19">
-        <v>28.81558187771751</v>
+        <v>29.41998857151224</v>
       </c>
       <c r="F19">
-        <v>27.43239920143314</v>
+        <v>27.43207543712246</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -754,19 +754,19 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>28.02850034397441</v>
+        <v>27.84378496386857</v>
       </c>
       <c r="C20">
-        <v>27.8195717315865</v>
+        <v>28.01446986221374</v>
       </c>
       <c r="D20">
-        <v>28.13358063093921</v>
+        <v>27.58783629074749</v>
       </c>
       <c r="E20">
-        <v>29.00956268937394</v>
+        <v>29.64181342701718</v>
       </c>
       <c r="F20">
-        <v>27.58480012521051</v>
+        <v>27.58451120477891</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -774,19 +774,19 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>28.20597213019979</v>
+        <v>28.02125896121431</v>
       </c>
       <c r="C21">
-        <v>27.9926301878226</v>
+        <v>28.19738978738702</v>
       </c>
       <c r="D21">
-        <v>28.32634098137113</v>
+        <v>27.75344110623163</v>
       </c>
       <c r="E21">
-        <v>29.21261730246776</v>
+        <v>29.87210103599398</v>
       </c>
       <c r="F21">
-        <v>27.75000040364527</v>
+        <v>27.74974755992671</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -794,19 +794,19 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>28.39511329389242</v>
+        <v>28.21107414568205</v>
       </c>
       <c r="C22">
-        <v>28.17792818625194</v>
+        <v>28.39240946249053</v>
       </c>
       <c r="D22">
-        <v>28.5315384910234</v>
+        <v>27.93185413998706</v>
       </c>
       <c r="E22">
-        <v>29.42472428331903</v>
+        <v>30.11082937328127</v>
       </c>
       <c r="F22">
-        <v>27.9279818694161</v>
+        <v>27.92776473279104</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -814,19 +814,19 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>28.59590634810755</v>
+        <v>28.41317598853578</v>
       </c>
       <c r="C23">
-        <v>28.3754354491836</v>
+        <v>28.59949064931896</v>
       </c>
       <c r="D23">
-        <v>28.74913111264672</v>
+        <v>28.12305732198553</v>
       </c>
       <c r="E23">
-        <v>29.64586205996292</v>
+        <v>30.35797644110225</v>
       </c>
       <c r="F23">
-        <v>28.11872646166192</v>
+        <v>28.1185428578191</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -834,19 +834,19 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>28.80833382252501</v>
+        <v>28.62751093943992</v>
       </c>
       <c r="C24">
-        <v>28.58512176303216</v>
+        <v>28.81859603438614</v>
       </c>
       <c r="D24">
-        <v>28.97907759839692</v>
+        <v>28.32703259954974</v>
       </c>
       <c r="E24">
-        <v>29.8760088963056</v>
+        <v>30.61352023339321</v>
       </c>
       <c r="F24">
-        <v>28.32221619393197</v>
+        <v>28.32206193056752</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -854,19 +854,19 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>29.03237819041774</v>
+        <v>28.85402631986407</v>
       </c>
       <c r="C25">
-        <v>28.80695689868116</v>
+        <v>29.04968911642693</v>
       </c>
       <c r="D25">
-        <v>29.22133737752958</v>
+        <v>28.54376189530304</v>
       </c>
       <c r="E25">
-        <v>30.1151428466834</v>
+        <v>30.87743869845225</v>
       </c>
       <c r="F25">
-        <v>28.53843311372082</v>
+        <v>28.53830175715974</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -874,19 +874,19 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>29.26802179777584</v>
+        <v>29.09267021112926</v>
       </c>
       <c r="C26">
-        <v>29.04091053820426</v>
+        <v>29.29273408965395</v>
       </c>
       <c r="D26">
-        <v>29.47587042549002</v>
+        <v>28.77322706832218</v>
       </c>
       <c r="E26">
-        <v>30.36324169475778</v>
+        <v>31.14970969487862</v>
       </c>
       <c r="F26">
-        <v>28.76735926606324</v>
+        <v>28.76724190625059</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -894,19 +894,19 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>29.51524678210463</v>
+        <v>29.34339133541606</v>
       </c>
       <c r="C27">
-        <v>29.28695218307068</v>
+        <v>29.54769572016368</v>
       </c>
       <c r="D27">
-        <v>29.74263711289675</v>
+        <v>29.01540985108812</v>
       </c>
       <c r="E27">
-        <v>30.62028290641029</v>
+        <v>31.43031093475279</v>
       </c>
       <c r="F27">
-        <v>29.00897663897002</v>
+        <v>29.00886163912073</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -914,19 +914,19 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>29.77403498924982</v>
+        <v>29.60613892855825</v>
       </c>
       <c r="C28">
-        <v>29.54505106095355</v>
+        <v>29.81453921133632</v>
       </c>
       <c r="D28">
-        <v>30.02159803649493</v>
+        <v>29.27029178731705</v>
       </c>
       <c r="E28">
-        <v>30.88624355481568</v>
+        <v>31.71921991063859</v>
       </c>
       <c r="F28">
-        <v>29.26326710613689</v>
+        <v>29.26313984076902</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -934,19 +934,19 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>30.04436786840273</v>
+        <v>29.88086260152096</v>
       </c>
       <c r="C29">
-        <v>29.81517602680141</v>
+        <v>30.09323005527652</v>
       </c>
       <c r="D29">
-        <v>30.31271382987699</v>
+        <v>29.5378541682418</v>
       </c>
       <c r="E29">
-        <v>31.16110022867912</v>
+        <v>32.0164138076401</v>
       </c>
       <c r="F29">
-        <v>29.53021237178059</v>
+        <v>29.53005495013638</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -954,19 +954,19 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>30.3262263553021</v>
+        <v>30.16751218674993</v>
       </c>
       <c r="C30">
-        <v>30.09729542990197</v>
+        <v>30.38373386217623</v>
       </c>
       <c r="D30">
-        <v>30.61594495074284</v>
+        <v>29.81807793146987</v>
       </c>
       <c r="E30">
-        <v>31.44482897465987</v>
+        <v>32.32186940962591</v>
       </c>
       <c r="F30">
-        <v>29.80979388194385</v>
+        <v>29.80958485576753</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -974,19 +974,19 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>30.6195907374991</v>
+        <v>30.46603756542089</v>
       </c>
       <c r="C31">
-        <v>30.39137699675839</v>
+        <v>30.68601618959743</v>
       </c>
       <c r="D31">
-        <v>30.93125140821224</v>
+        <v>30.11094355603371</v>
       </c>
       <c r="E31">
-        <v>31.73740514624125</v>
+        <v>32.63556295266767</v>
       </c>
       <c r="F31">
-        <v>30.10199273328571</v>
+        <v>30.10170679094587</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -994,19 +994,19 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>30.92444050469762</v>
+        <v>30.77638846976556</v>
       </c>
       <c r="C32">
-        <v>30.69738768055864</v>
+        <v>31.00004229342557</v>
       </c>
       <c r="D32">
-        <v>31.25859245677941</v>
+        <v>30.41643095246583</v>
       </c>
       <c r="E32">
-        <v>32.03880330701485</v>
+        <v>32.95746995941927</v>
       </c>
       <c r="F32">
-        <v>30.40678958051567</v>
+        <v>30.40639722454255</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -1014,19 +1014,19 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>31.24075414724991</v>
+        <v>31.09851425430184</v>
       </c>
       <c r="C33">
-        <v>31.01529346877557</v>
+        <v>31.32577685132728</v>
       </c>
       <c r="D33">
-        <v>31.59792623421912</v>
+        <v>30.73451929723913</v>
       </c>
       <c r="E33">
-        <v>32.34899708865504</v>
+        <v>33.28756503491027</v>
       </c>
       <c r="F33">
-        <v>30.72416449065417</v>
+        <v>30.72363170139227</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -1034,19 +1034,19 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>31.56850893157889</v>
+        <v>31.43236362794867</v>
       </c>
       <c r="C34">
-        <v>31.34505921011061</v>
+        <v>31.66318369723139</v>
       </c>
       <c r="D34">
-        <v>31.94920932735162</v>
+        <v>31.06518684275026</v>
       </c>
       <c r="E34">
-        <v>32.66795896990158</v>
+        <v>33.62582162234087</v>
       </c>
       <c r="F34">
-        <v>31.05409678037048</v>
+        <v>31.05338466623674</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -1054,19 +1054,19 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>31.90768063094153</v>
+        <v>31.77788433669837</v>
       </c>
       <c r="C35">
-        <v>31.68664837195902</v>
+        <v>32.0122253514043</v>
       </c>
       <c r="D35">
-        <v>32.31239620049678</v>
+        <v>31.40841071719238</v>
       </c>
       <c r="E35">
-        <v>32.99566014648637</v>
+        <v>33.97221164383859</v>
       </c>
       <c r="F35">
-        <v>31.39656485248545</v>
+        <v>31.39562928079279</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -1074,19 +1074,19 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>32.25824320014846</v>
+        <v>32.13502278360385</v>
       </c>
       <c r="C36">
-        <v>32.04002273151518</v>
+        <v>32.37286254400981</v>
       </c>
       <c r="D36">
-        <v>32.68743852911799</v>
+        <v>31.76416665020259</v>
       </c>
       <c r="E36">
-        <v>33.3320702153732</v>
+        <v>34.32670507790454</v>
       </c>
       <c r="F36">
-        <v>31.75154594521103</v>
+        <v>31.75033716985421</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -1094,19 +1094,19 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>32.62016834003746</v>
+        <v>32.50372356805402</v>
       </c>
       <c r="C37">
-        <v>32.40514210554051</v>
+        <v>32.74505370426828</v>
       </c>
       <c r="D37">
-        <v>33.07428441048829</v>
+        <v>32.13242861776393</v>
       </c>
       <c r="E37">
-        <v>33.67715686225171</v>
+        <v>34.68926948774205</v>
       </c>
       <c r="F37">
-        <v>32.11901583101423</v>
+        <v>32.11747810966978</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -1114,19 +1114,19 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>32.99342498551545</v>
+        <v>32.88392892533401</v>
       </c>
       <c r="C38">
-        <v>32.7819639241366</v>
+        <v>33.12875412148142</v>
       </c>
       <c r="D38">
-        <v>33.47287735219288</v>
+        <v>32.51316845430102</v>
       </c>
       <c r="E38">
-        <v>34.03088563119944</v>
+        <v>35.05986930861371</v>
       </c>
       <c r="F38">
-        <v>32.49894850822865</v>
+        <v>32.49701969353062</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -1134,19 +1134,19 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>33.37797870126749</v>
+        <v>33.2755780398293</v>
       </c>
       <c r="C39">
-        <v>33.17044270706044</v>
+        <v>33.52391497201046</v>
       </c>
       <c r="D39">
-        <v>33.88315495441079</v>
+        <v>32.90635540026047</v>
       </c>
       <c r="E39">
-        <v>34.39321927530202</v>
+        <v>35.43846497504004</v>
       </c>
       <c r="F39">
-        <v>32.89131578152058</v>
+        <v>32.88892692026864</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -1154,19 +1154,19 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>33.77379087997058</v>
+        <v>33.67860618176147</v>
       </c>
       <c r="C40">
-        <v>33.57052960571872</v>
+        <v>33.93048227356211</v>
       </c>
       <c r="D40">
-        <v>34.30504730792837</v>
+        <v>33.31195540271063</v>
       </c>
       <c r="E40">
-        <v>34.76411740662746</v>
+        <v>35.82501178735963</v>
       </c>
       <c r="F40">
-        <v>33.29608666906227</v>
+        <v>33.29316160163276</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -1174,19 +1174,19 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>34.18081770071735</v>
+        <v>34.09294363654512</v>
       </c>
       <c r="C41">
-        <v>33.98217162586356</v>
+        <v>34.34839531004769</v>
       </c>
       <c r="D41">
-        <v>34.7384751100934</v>
+        <v>33.72993044731739</v>
       </c>
       <c r="E41">
-        <v>35.1435357838193</v>
+        <v>36.21945871551707</v>
       </c>
       <c r="F41">
-        <v>33.71322673191417</v>
+        <v>33.7096817923459</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -1194,19 +1194,19 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>34.59900882603418</v>
+        <v>34.5185143513884</v>
       </c>
       <c r="C42">
-        <v>34.40531076300556</v>
+        <v>34.77758457159011</v>
       </c>
       <c r="D42">
-        <v>35.18334710056581</v>
+        <v>34.16023745111431</v>
       </c>
       <c r="E42">
-        <v>35.53142544905058</v>
+        <v>36.62174634108928</v>
       </c>
       <c r="F42">
-        <v>34.14269724659551</v>
+        <v>34.13844084393751</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -1214,19 +1214,19 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>35.02830589411006</v>
+        <v>34.9552342148454</v>
       </c>
       <c r="C43">
-        <v>34.83988282273598</v>
+        <v>35.21796942176608</v>
       </c>
       <c r="D43">
-        <v>35.63955676139864</v>
+        <v>34.60282707624874</v>
       </c>
       <c r="E43">
-        <v>35.92773164550216</v>
+        <v>37.03180454952694</v>
       </c>
       <c r="F43">
-        <v>34.58445414922063</v>
+        <v>34.57938638779411</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -1234,19 +1234,19 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>35.46864032867482</v>
+        <v>35.40300887082515</v>
       </c>
       <c r="C44">
-        <v>35.2858160818689</v>
+        <v>35.66945517115602</v>
       </c>
       <c r="D44">
-        <v>36.1069781378201</v>
+        <v>35.05764221751691</v>
       </c>
       <c r="E44">
-        <v>36.33239253892804</v>
+        <v>37.44954973968488</v>
       </c>
       <c r="F44">
-        <v>35.03844664587253</v>
+        <v>35.03245905485555</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -1254,19 +1254,19 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>35.91993056581696</v>
+        <v>35.86173088299047</v>
       </c>
       <c r="C45">
-        <v>35.74302959747757</v>
+        <v>36.13192850160287</v>
       </c>
       <c r="D45">
-        <v>36.58546096890363</v>
+        <v>35.52461597934882</v>
       </c>
       <c r="E45">
-        <v>36.74533764585924</v>
+        <v>37.87488093660384</v>
       </c>
       <c r="F45">
-        <v>35.50461543636354</v>
+        <v>35.49759075986618</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -1274,19 +1274,19 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>36.3820783705229</v>
+        <v>36.3312760649541</v>
       </c>
       <c r="C46">
-        <v>36.2114309429281</v>
+        <v>36.60525293458963</v>
       </c>
       <c r="D46">
-        <v>37.07482403705222</v>
+        <v>36.00366902010903</v>
       </c>
       <c r="E46">
-        <v>37.16648572551451</v>
+        <v>38.30767459932397</v>
       </c>
       <c r="F46">
-        <v>35.98289035581569</v>
+        <v>35.97470245414083</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -1294,19 +1294,19 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>36.85496465821977</v>
+        <v>36.81149868204207</v>
       </c>
       <c r="C47">
-        <v>36.69091324251515</v>
+        <v>37.08926086251297</v>
       </c>
       <c r="D47">
-        <v>37.57484566402197</v>
+        <v>36.49470608519685</v>
       </c>
       <c r="E47">
-        <v>37.59574204810172</v>
+        <v>38.74777876084627</v>
       </c>
       <c r="F47">
-        <v>36.4731873023576</v>
+        <v>36.46370118772111</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -1314,19 +1314,19 @@
         <v>46</v>
       </c>
       <c r="B48">
-        <v>37.33844321705313</v>
+        <v>37.30222513317523</v>
       </c>
       <c r="C48">
-        <v>37.18135131335958</v>
+        <v>37.58374493524147</v>
       </c>
       <c r="D48">
-        <v>38.08525222079204</v>
+        <v>36.9976114185534</v>
       </c>
       <c r="E48">
-        <v>38.03299487619652</v>
+        <v>39.19500372361711</v>
       </c>
       <c r="F48">
-        <v>36.97540412240865</v>
+        <v>36.96447621665663</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -1334,19 +1334,19 @@
         <v>47</v>
       </c>
       <c r="B49">
-        <v>37.83233211942606</v>
+        <v>37.80324575240895</v>
       </c>
       <c r="C49">
-        <v>37.68259656451376</v>
+        <v>38.08844680259603</v>
       </c>
       <c r="D49">
-        <v>38.60570374357044</v>
+        <v>37.51224258643103</v>
       </c>
       <c r="E49">
-        <v>38.47811083041568</v>
+        <v>39.64911173154071</v>
       </c>
       <c r="F49">
-        <v>37.48941522828245</v>
+        <v>37.47689376034449</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -1354,19 +1354,19 @@
         <v>48</v>
       </c>
       <c r="B50">
-        <v>38.3364023397085</v>
+        <v>38.31430365047336</v>
       </c>
       <c r="C50">
-        <v>38.19447033498534</v>
+        <v>38.6030418369557</v>
       </c>
       <c r="D50">
-        <v>39.13577467699132</v>
+        <v>38.03842205121062</v>
       </c>
       <c r="E50">
-        <v>38.93092894936272</v>
+        <v>40.10980361857109</v>
       </c>
       <c r="F50">
-        <v>38.01506364188195</v>
+        <v>38.00078997744861</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -1374,19 +1374,19 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>38.85036370518347</v>
+        <v>38.83508064075563</v>
       </c>
       <c r="C51">
-        <v>38.71675430456528</v>
+        <v>39.12711902597022</v>
       </c>
       <c r="D51">
-        <v>39.67492827907337</v>
+        <v>38.57592553955133</v>
       </c>
       <c r="E51">
-        <v>39.39125268274012</v>
+        <v>40.57670127268608</v>
       </c>
       <c r="F51">
-        <v>38.55215023022404</v>
+        <v>38.53596106858821</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -1394,19 +1394,19 @@
         <v>50</v>
       </c>
       <c r="B52">
-        <v>39.37384528779127</v>
+        <v>39.36517635009362</v>
       </c>
       <c r="C52">
-        <v>39.24917733395904</v>
+        <v>39.66015498631823</v>
       </c>
       <c r="D52">
-        <v>40.22248397962377</v>
+        <v>39.12446579261391</v>
       </c>
       <c r="E52">
-        <v>39.85883909376994</v>
+        <v>41.049325093746</v>
       </c>
       <c r="F52">
-        <v>39.10041911770914</v>
+        <v>39.0821488327796</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -1414,19 +1414,19 @@
         <v>51</v>
       </c>
       <c r="B53">
-        <v>39.90636846756465</v>
+        <v>39.90408184266526</v>
       </c>
       <c r="C53">
-        <v>39.79139789290512</v>
+        <v>40.20148152052072</v>
       </c>
       <c r="D53">
-        <v>40.77757340952441</v>
+        <v>39.68367023291597</v>
       </c>
       <c r="E53">
-        <v>40.33338497143845</v>
+        <v>41.52706579262961</v>
       </c>
       <c r="F53">
-        <v>39.65953627847649</v>
+        <v>39.63902140830039</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -1434,19 +1434,19 @@
         <v>52</v>
       </c>
       <c r="B54">
-        <v>40.44731166280117</v>
+        <v>40.45114517908235</v>
       </c>
       <c r="C54">
-        <v>40.34297875649797</v>
+        <v>40.75024005009379</v>
       </c>
       <c r="D54">
-        <v>41.33908498865059</v>
+        <v>40.25304770085255</v>
       </c>
       <c r="E54">
-        <v>40.81450693150207</v>
+        <v>42.00914944738268</v>
       </c>
       <c r="F54">
-        <v>40.22905856594828</v>
+        <v>40.20614518065727</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -1454,19 +1454,19 @@
         <v>53</v>
       </c>
       <c r="B55">
-        <v>40.99586046695292</v>
+        <v>41.00552393523055</v>
       </c>
       <c r="C55">
-        <v>40.90335049814897</v>
+        <v>41.30532768003381</v>
       </c>
       <c r="D55">
-        <v>41.90559585851108</v>
+        <v>40.83193949093138</v>
       </c>
       <c r="E55">
-        <v>41.30171376969142</v>
+        <v>42.49459468113291</v>
       </c>
       <c r="F55">
-        <v>40.80838925377761</v>
+        <v>40.78294333012065</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -1474,19 +1474,19 @@
         <v>54</v>
       </c>
       <c r="B56">
-        <v>41.55094449297668</v>
+        <v>41.56612217135141</v>
       </c>
       <c r="C56">
-        <v>41.47175990109552</v>
+        <v>41.86532939858581</v>
       </c>
       <c r="D56">
-        <v>42.47528481334434</v>
+        <v>41.41945410910456</v>
       </c>
       <c r="E56">
-        <v>41.7943719724064</v>
+        <v>42.98216126498937</v>
       </c>
       <c r="F56">
-        <v>41.39671092764144</v>
+        <v>41.36863633974904</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -1494,19 +1494,19 @@
         <v>55</v>
       </c>
       <c r="B57">
-        <v>42.11115431751399</v>
+        <v>42.13150819543053</v>
       </c>
       <c r="C57">
-        <v>42.04719289760244</v>
+        <v>42.42843303413571</v>
       </c>
       <c r="D57">
-        <v>43.04582999567205</v>
+        <v>42.01436777541465</v>
       </c>
       <c r="E57">
-        <v>42.29165725179163</v>
+        <v>43.47029039359661</v>
       </c>
       <c r="F57">
-        <v>41.99289045851853</v>
+        <v>41.96215149657254</v>
       </c>
     </row>
     <row r="58" spans="1:6">
@@ -1514,19 +1514,19 @@
         <v>56</v>
       </c>
       <c r="B58">
-        <v>42.67463428864162</v>
+        <v>42.6998107139141</v>
       </c>
       <c r="C58">
-        <v>42.62826653391302</v>
+        <v>42.99233032520686</v>
       </c>
       <c r="D58">
-        <v>43.61429353488964</v>
+        <v>42.61498327567107</v>
       </c>
       <c r="E58">
-        <v>42.79248841314164</v>
+        <v>43.95703841659913</v>
       </c>
       <c r="F58">
-        <v>42.59534045927204</v>
+        <v>42.56199559685941</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -1534,19 +1534,19 @@
         <v>57</v>
       </c>
       <c r="B59">
-        <v>43.23894970526737</v>
+        <v>43.26858867619352</v>
       </c>
       <c r="C59">
-        <v>43.21307464071344</v>
+        <v>43.55410627936802</v>
       </c>
       <c r="D59">
-        <v>44.17700395750897</v>
+        <v>43.21893941342096</v>
       </c>
       <c r="E59">
-        <v>43.29544122635289</v>
+        <v>44.44000823947804</v>
       </c>
       <c r="F59">
-        <v>43.20182383984014</v>
+        <v>43.16607107422922</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -1554,19 +1554,19 @@
         <v>58</v>
       </c>
       <c r="B60">
-        <v>43.8009340156251</v>
+        <v>43.83467919058661</v>
       </c>
       <c r="C60">
-        <v>43.79897249945054</v>
+        <v>44.11012712422827</v>
       </c>
       <c r="D60">
-        <v>44.72945499248509</v>
+        <v>43.82295600981214</v>
       </c>
       <c r="E60">
-        <v>43.79863439211595</v>
+        <v>44.91628622921282</v>
       </c>
       <c r="F60">
-        <v>43.80919289827997</v>
+        <v>43.77142210410895</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -1574,19 +1574,19 @@
         <v>59</v>
       </c>
       <c r="B61">
-        <v>44.35652593226923</v>
+        <v>44.39403422899549</v>
       </c>
       <c r="C61">
-        <v>44.38229599428496</v>
+        <v>44.655944148704</v>
       </c>
       <c r="D61">
-        <v>45.26625294072716</v>
+        <v>44.42252885124218</v>
       </c>
       <c r="E61">
-        <v>44.29959111541886</v>
+        <v>45.3823937114399</v>
       </c>
       <c r="F61">
-        <v>44.41306591678205</v>
+        <v>44.37391040572064</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -1594,19 +1594,19 @@
         <v>60</v>
       </c>
       <c r="B62">
-        <v>44.90062574248257</v>
+        <v>44.94157134145603</v>
       </c>
       <c r="C62">
-        <v>44.95802823963731</v>
+        <v>45.18624137966611</v>
       </c>
       <c r="D62">
-        <v>45.78116364566684</v>
+        <v>45.01161389058262</v>
       </c>
       <c r="E62">
-        <v>44.79507900101358</v>
+        <v>45.83428457055147</v>
       </c>
       <c r="F62">
-        <v>45.00747890134127</v>
+        <v>44.9678460803272</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -1614,19 +1614,19 @@
         <v>61</v>
       </c>
       <c r="B63">
-        <v>45.42701718205058</v>
+        <v>45.47108538504634</v>
       </c>
       <c r="C63">
-        <v>45.51947007894459</v>
+        <v>45.69487876964779</v>
       </c>
       <c r="D63">
-        <v>46.26729742055708</v>
+        <v>45.58239575457611</v>
       </c>
       <c r="E63">
-        <v>45.28094243746772</v>
+        <v>46.2673930855285</v>
       </c>
       <c r="F63">
-        <v>45.5846067860113</v>
+        <v>45.54565802794881</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -1634,19 +1634,19 @@
         <v>62</v>
       </c>
       <c r="B64">
-        <v>45.92843692531397</v>
+        <v>45.97530041459227</v>
       </c>
       <c r="C64">
-        <v>46.05804738598892</v>
+        <v>46.17506423681852</v>
       </c>
       <c r="D64">
-        <v>46.71748044781265</v>
+        <v>46.12529633398361</v>
       </c>
       <c r="E64">
-        <v>45.75197024642864</v>
+        <v>46.67676351624798</v>
       </c>
       <c r="F64">
-        <v>46.13471238501143</v>
+        <v>46.09776857895462</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -1654,19 +1654,19 @@
         <v>63</v>
       </c>
       <c r="B65">
-        <v>46.39685326450499</v>
+        <v>46.44612538144642</v>
       </c>
       <c r="C65">
-        <v>46.56345181448744</v>
+        <v>46.61970190873159</v>
       </c>
       <c r="D65">
-        <v>47.12481352654196</v>
+        <v>46.62941019724005</v>
       </c>
       <c r="E65">
-        <v>46.20185895489857</v>
+        <v>47.05727913014087</v>
       </c>
       <c r="F65">
-        <v>46.64653137357531</v>
+        <v>46.61289450639343</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -1674,19 +1674,19 @@
         <v>64</v>
       </c>
       <c r="B66">
-        <v>46.82402530303415</v>
+        <v>46.87520090616756</v>
       </c>
       <c r="C66">
-        <v>47.02433701859395</v>
+        <v>47.0219283281631</v>
       </c>
       <c r="D66">
-        <v>47.48335424327702</v>
+        <v>47.08350361846789</v>
       </c>
       <c r="E66">
-        <v>46.6233622828246</v>
+        <v>47.40398982897713</v>
       </c>
       <c r="F66">
-        <v>47.10826240889113</v>
+        <v>47.07898508262101</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -1694,19 +1694,19 @@
         <v>65</v>
       </c>
       <c r="B67">
-        <v>47.20232508313808</v>
+        <v>47.25472448609727</v>
       </c>
       <c r="C67">
-        <v>47.42966197909308</v>
+        <v>47.37577862812003</v>
       </c>
       <c r="D67">
-        <v>47.78879735483866</v>
+        <v>47.47751763714358</v>
       </c>
       <c r="E67">
-        <v>47.00871929891255</v>
+        <v>47.71250366049575</v>
       </c>
       <c r="F67">
-        <v>47.50913817357353</v>
+        <v>47.48481546102686</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -1714,19 +1714,19 @@
         <v>66</v>
       </c>
       <c r="B68">
-        <v>47.52569025862843</v>
+        <v>47.57843599249353</v>
       </c>
       <c r="C68">
-        <v>47.7704746684339</v>
+        <v>47.67686869089079</v>
       </c>
       <c r="D68">
-        <v>48.03898615261534</v>
+        <v>47.80421596930498</v>
       </c>
       <c r="E68">
-        <v>47.35037787553567</v>
+        <v>47.97939332575119</v>
       </c>
       <c r="F68">
-        <v>47.84123695021082</v>
+        <v>47.82190564463842</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -1734,19 +1734,19 @@
         <v>67</v>
       </c>
       <c r="B69">
-        <v>47.79047430301701</v>
+        <v>47.84252621354435</v>
       </c>
       <c r="C69">
-        <v>48.04158795516094</v>
+        <v>47.92292959607776</v>
       </c>
       <c r="D69">
-        <v>48.23411569363837</v>
+        <v>48.06044170051764</v>
       </c>
       <c r="E69">
-        <v>47.64195592960016</v>
+        <v>48.20253556986222</v>
       </c>
       <c r="F69">
-        <v>48.10092121810685</v>
+        <v>48.08611516155659</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -1754,19 +1754,19 @@
         <v>68</v>
       </c>
       <c r="B70">
-        <v>47.99593315655044</v>
+        <v>48.04618177494628</v>
       </c>
       <c r="C70">
-        <v>48.24248378087856</v>
+        <v>48.11404594011255</v>
       </c>
       <c r="D70">
-        <v>48.37657760609459</v>
+        <v>48.24748949378867</v>
       </c>
       <c r="E70">
-        <v>47.87920443118494</v>
+        <v>48.38130983961487</v>
       </c>
       <c r="F70">
-        <v>48.28933480800936</v>
+        <v>48.27826471522288</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -1774,19 +1774,19 @@
         <v>69</v>
       </c>
       <c r="B71">
-        <v>48.14419409723804</v>
+        <v>48.19158324406827</v>
       </c>
       <c r="C71">
-        <v>48.37709068478389</v>
+        <v>48.25253370551015</v>
       </c>
       <c r="D71">
-        <v>48.4705067049938</v>
+        <v>48.37049231565606</v>
       </c>
       <c r="E71">
-        <v>48.06067556155782</v>
+        <v>48.51660293158234</v>
       </c>
       <c r="F71">
-        <v>48.41179138936722</v>
+        <v>48.40356545064365</v>
       </c>
     </row>
     <row r="72" spans="1:6">
@@ -1794,19 +1794,19 @@
         <v>70</v>
       </c>
       <c r="B72">
-        <v>48.23973802326152</v>
+        <v>48.2833881703158</v>
       </c>
       <c r="C72">
-        <v>48.45260704181818</v>
+        <v>48.34250444021096</v>
       </c>
       <c r="D72">
-        <v>48.52116739871091</v>
+        <v>48.43714359466251</v>
       </c>
       <c r="E72">
-        <v>48.1878617759379</v>
+        <v>48.61064575659114</v>
       </c>
       <c r="F72">
-        <v>48.47639379614178</v>
+        <v>48.47019166062574</v>
       </c>
     </row>
     <row r="73" spans="1:6">
@@ -1814,19 +1814,19 @@
         <v>71</v>
       </c>
       <c r="B73">
-        <v>48.2885886347665</v>
+        <v>48.32787619817376</v>
       </c>
       <c r="C73">
-        <v>48.47792722415121</v>
+        <v>48.38924952338991</v>
       </c>
       <c r="D73">
-        <v>48.53433129612041</v>
+        <v>48.45626236122733</v>
       </c>
       <c r="E73">
-        <v>48.2647717732789</v>
+        <v>48.66670089159886</v>
       </c>
       <c r="F73">
-        <v>48.49245661519311</v>
+        <v>48.48762163780777</v>
       </c>
     </row>
     <row r="74" spans="1:6">
@@ -1834,19 +1834,19 @@
         <v>72</v>
       </c>
       <c r="B74">
-        <v>48.29745473301468</v>
+        <v>48.3320377995082</v>
       </c>
       <c r="C74">
-        <v>48.46221947146383</v>
+        <v>48.39860142689347</v>
       </c>
       <c r="D74">
-        <v>48.51575819035562</v>
+        <v>48.43661033439714</v>
       </c>
       <c r="E74">
-        <v>48.29712454280541</v>
+        <v>48.68869090246938</v>
       </c>
       <c r="F74">
-        <v>48.46920720619381</v>
+        <v>48.4652645648876</v>
       </c>
     </row>
     <row r="75" spans="1:6">
@@ -1854,19 +1854,19 @@
         <v>73</v>
       </c>
       <c r="B75">
-        <v>48.27301563479909</v>
+        <v>48.30280758003371</v>
       </c>
       <c r="C75">
-        <v>48.41395257899713</v>
+        <v>48.37639331285697</v>
       </c>
       <c r="D75">
-        <v>48.4708317721221</v>
+        <v>48.38613344019571</v>
       </c>
       <c r="E75">
-        <v>48.2914412169418</v>
+        <v>48.68083323133998</v>
       </c>
       <c r="F75">
-        <v>48.41496262673346</v>
+        <v>48.41159509529629</v>
       </c>
     </row>
     <row r="76" spans="1:6">
@@ -1874,19 +1874,19 @@
         <v>74</v>
       </c>
       <c r="B76">
-        <v>48.22143626470863</v>
+        <v>48.24655952646826</v>
       </c>
       <c r="C76">
-        <v>48.34040132372066</v>
+        <v>48.32807651572819</v>
       </c>
       <c r="D76">
-        <v>48.40434998461931</v>
+        <v>48.31160528079612</v>
       </c>
       <c r="E76">
-        <v>48.254268117459</v>
+        <v>48.64733370492677</v>
       </c>
       <c r="F76">
-        <v>48.3367565638083</v>
+        <v>48.33376455940336</v>
       </c>
     </row>
     <row r="77" spans="1:6">
@@ -1894,19 +1894,19 @@
         <v>75</v>
       </c>
       <c r="B77">
-        <v>48.14810900344404</v>
+        <v>48.1688314567121</v>
       </c>
       <c r="C77">
-        <v>48.24751270143356</v>
+        <v>48.25849975994403</v>
       </c>
       <c r="D77">
-        <v>48.32044052845753</v>
+        <v>48.2185583760082</v>
       </c>
       <c r="E77">
-        <v>48.19164660356337</v>
+        <v>48.59216413118945</v>
       </c>
       <c r="F77">
-        <v>48.2402815591574</v>
+        <v>48.23754507144643</v>
       </c>
     </row>
     <row r="78" spans="1:6">
@@ -1914,19 +1914,19 @@
         <v>76</v>
       </c>
       <c r="B78">
-        <v>48.05757103746395</v>
+        <v>48.07425027004852</v>
       </c>
       <c r="C78">
-        <v>48.13998682792786</v>
+        <v>48.17182045334235</v>
       </c>
       <c r="D78">
-        <v>48.22256267420206</v>
+        <v>48.11138003083607</v>
       </c>
       <c r="E78">
-        <v>48.10883362667794</v>
+        <v>48.51892443535073</v>
       </c>
       <c r="F78">
-        <v>48.13000787037637</v>
+        <v>48.12745688747079</v>
       </c>
     </row>
     <row r="79" spans="1:6">
@@ -1934,19 +1934,19 @@
         <v>77</v>
       </c>
       <c r="B79">
-        <v>47.95353458767057</v>
+        <v>47.96657113597798</v>
       </c>
       <c r="C79">
-        <v>48.02145474048813</v>
+        <v>48.07150748613483</v>
       </c>
       <c r="D79">
-        <v>48.11355994656213</v>
+        <v>47.99348021183732</v>
       </c>
       <c r="E79">
-        <v>48.01021576610155</v>
+        <v>48.43077687701302</v>
       </c>
       <c r="F79">
-        <v>48.00937494546703</v>
+        <v>48.00696893407582</v>
       </c>
     </row>
     <row r="80" spans="1:6">
@@ -1954,19 +1954,19 @@
         <v>78</v>
       </c>
       <c r="B80">
-        <v>47.83897678531526</v>
+        <v>47.84878048930577</v>
       </c>
       <c r="C80">
-        <v>47.89467977270961</v>
+        <v>47.96039763269228</v>
       </c>
       <c r="D80">
-        <v>47.99573693957419</v>
+        <v>47.8674739016792</v>
       </c>
       <c r="E80">
-        <v>47.89934584056346</v>
+        <v>48.33043326428604</v>
       </c>
       <c r="F80">
-        <v>47.88099383407609</v>
+        <v>47.87870854210657</v>
       </c>
     </row>
     <row r="81" spans="1:6">
@@ -1974,19 +1974,19 @@
         <v>79</v>
       </c>
       <c r="B81">
-        <v>47.71625187151083</v>
+        <v>47.72321909688133</v>
       </c>
       <c r="C81">
-        <v>47.76174569721532</v>
+        <v>47.84077695818453</v>
       </c>
       <c r="D81">
-        <v>47.87094249446049</v>
+        <v>47.73535052585103</v>
       </c>
       <c r="E81">
-        <v>47.77904152137533</v>
+        <v>48.2201767242365</v>
       </c>
       <c r="F81">
-        <v>47.7468303315833</v>
+        <v>47.74465047187149</v>
       </c>
     </row>
     <row r="82" spans="1:6">
@@ -1994,19 +1994,19 @@
         <v>80</v>
       </c>
       <c r="B82">
-        <v>47.58720384534551</v>
+        <v>47.59170376489249</v>
       </c>
       <c r="C82">
-        <v>47.6242162066814</v>
+        <v>47.71446842821814</v>
       </c>
       <c r="D82">
-        <v>47.74064950328059</v>
+        <v>47.59861596602287</v>
       </c>
       <c r="E82">
-        <v>47.65150513264009</v>
+        <v>48.10190286729606</v>
       </c>
       <c r="F82">
-        <v>47.60835784471289</v>
+        <v>47.6062720469101</v>
       </c>
     </row>
     <row r="83" spans="1:6">
@@ -2014,19 +2014,19 @@
         <v>81</v>
       </c>
       <c r="B83">
-        <v>47.45326839143415</v>
+        <v>47.455636170105</v>
       </c>
       <c r="C83">
-        <v>47.48326046203737</v>
+        <v>47.58291547614648</v>
       </c>
       <c r="D83">
-        <v>47.60602634946356</v>
+        <v>47.45840740084279</v>
       </c>
       <c r="E83">
-        <v>47.51844129415605</v>
+        <v>47.97716892445455</v>
       </c>
       <c r="F83">
-        <v>47.46667726496284</v>
+        <v>47.46467652033128</v>
       </c>
     </row>
     <row r="84" spans="1:6">
@@ -2034,19 +2034,19 @@
         <v>82</v>
       </c>
       <c r="B84">
-        <v>47.31555923746635</v>
+        <v>47.31609365884753</v>
       </c>
       <c r="C84">
-        <v>47.33975293251115</v>
+        <v>47.44725602456458</v>
       </c>
       <c r="D84">
-        <v>47.46799705493216</v>
+        <v>47.31558332762595</v>
       </c>
       <c r="E84">
-        <v>47.38116184717259</v>
+        <v>47.84724413845473</v>
       </c>
       <c r="F84">
-        <v>47.32261158333501</v>
+        <v>47.32068767183808</v>
       </c>
     </row>
     <row r="85" spans="1:6">
@@ -2054,19 +2054,19 @@
         <v>83</v>
       </c>
       <c r="B85">
-        <v>47.17493876161663</v>
+        <v>47.17390213386179</v>
       </c>
       <c r="C85">
-        <v>47.19434789760881</v>
+        <v>47.30838424602317</v>
       </c>
       <c r="D85">
-        <v>47.3272909313093</v>
+        <v>47.17079238587556</v>
       </c>
       <c r="E85">
-        <v>47.24067248370306</v>
+        <v>47.71315763267806</v>
       </c>
       <c r="F85">
-        <v>47.17677614272325</v>
+        <v>47.17492150782273</v>
       </c>
     </row>
     <row r="86" spans="1:6">
@@ -2074,19 +2074,19 @@
         <v>84</v>
       </c>
       <c r="B86">
-        <v>47.0320742064856</v>
+        <v>47.02969498798267</v>
       </c>
       <c r="C86">
-        <v>47.04753607151282</v>
+        <v>47.16700202051792</v>
       </c>
       <c r="D86">
-        <v>47.18448359344396</v>
+        <v>47.02452555589996</v>
       </c>
       <c r="E86">
-        <v>47.09774276465789</v>
+        <v>47.5757406537521</v>
       </c>
       <c r="F86">
-        <v>47.02963225092826</v>
+        <v>47.02783967412411</v>
       </c>
     </row>
     <row r="87" spans="1:6">
@@ -2094,19 +2094,19 @@
         <v>85</v>
       </c>
       <c r="B87">
-        <v>46.88748255836789</v>
+        <v>46.88395796351615</v>
       </c>
       <c r="C87">
-        <v>46.89968627450823</v>
+        <v>47.02366004839865</v>
       </c>
       <c r="D87">
-        <v>47.04002968801512</v>
+        <v>46.87715546599304</v>
       </c>
       <c r="E87">
-        <v>46.95296170594118</v>
+        <v>47.43566270659935</v>
       </c>
       <c r="F87">
-        <v>46.88152627919197</v>
+        <v>46.87978898331458</v>
       </c>
     </row>
     <row r="88" spans="1:6">
@@ -2114,19 +2114,19 @@
         <v>86</v>
       </c>
       <c r="B88">
-        <v>46.7415648761007</v>
+        <v>46.7370643125314</v>
       </c>
       <c r="C88">
-        <v>46.75107653916514</v>
+        <v>46.87879085862298</v>
       </c>
       <c r="D88">
-        <v>46.89428861928664</v>
+        <v>46.72896569023691</v>
       </c>
       <c r="E88">
-        <v>46.80678023824084</v>
+        <v>47.29346216777765</v>
       </c>
       <c r="F88">
-        <v>46.73271932919289</v>
+        <v>46.73103098293024</v>
       </c>
     </row>
     <row r="89" spans="1:6">
@@ -2134,19 +2134,19 @@
         <v>87</v>
       </c>
       <c r="B89">
-        <v>46.59463275497919</v>
+        <v>46.58930123049882</v>
       </c>
       <c r="C89">
-        <v>46.60191729686215</v>
+        <v>46.73273460132269</v>
       </c>
       <c r="D89">
-        <v>46.74754489819759</v>
+        <v>46.58017276418205</v>
       </c>
       <c r="E89">
-        <v>46.65954441726203</v>
+        <v>47.14957196483184</v>
       </c>
       <c r="F89">
-        <v>46.58340868670433</v>
+        <v>46.58176345838051</v>
       </c>
     </row>
     <row r="90" spans="1:6">
@@ -2154,19 +2154,19 @@
         <v>88</v>
       </c>
       <c r="B90">
-        <v>46.44692911519885</v>
+        <v>46.44089032093957</v>
       </c>
       <c r="C90">
-        <v>46.45236820568229</v>
+        <v>46.58575917738862</v>
       </c>
       <c r="D90">
-        <v>46.60002413846519</v>
+        <v>46.43094262484041</v>
       </c>
       <c r="E90">
-        <v>46.5115201598052</v>
+        <v>47.00434014459746</v>
       </c>
       <c r="F90">
-        <v>46.43374404359878</v>
+        <v>46.43213661605839</v>
       </c>
     </row>
     <row r="91" spans="1:6">
@@ -2174,19 +2174,19 @@
         <v>89</v>
       </c>
       <c r="B91">
-        <v>46.29864373931579</v>
+        <v>46.29200301489526</v>
       </c>
       <c r="C91">
-        <v>46.30255097305732</v>
+        <v>46.43807622650034</v>
       </c>
       <c r="D91">
-        <v>46.45190574747468</v>
+        <v>46.28140279724383</v>
       </c>
       <c r="E91">
-        <v>46.36291235588981</v>
+        <v>46.85804661197903</v>
       </c>
       <c r="F91">
-        <v>46.28383930667446</v>
+        <v>46.28226490606243</v>
       </c>
     </row>
     <row r="92" spans="1:6">
@@ -2194,19 +2194,19 @@
         <v>90</v>
       </c>
       <c r="B92">
-        <v>46.14992531083566</v>
+        <v>46.14277227147929</v>
       </c>
       <c r="C92">
-        <v>46.15255861410444</v>
+        <v>46.2898532652092</v>
       </c>
       <c r="D92">
-        <v>46.30333269108721</v>
+        <v>46.13165167452924</v>
       </c>
       <c r="E92">
-        <v>46.21387938736614</v>
+        <v>46.71091682314197</v>
       </c>
       <c r="F92">
-        <v>46.13378152111893</v>
+        <v>46.13223587782393</v>
       </c>
     </row>
     <row r="93" spans="1:6">
@@ -2214,19 +2214,19 @@
         <v>91</v>
       </c>
       <c r="B93">
-        <v>46.00089075799275</v>
+        <v>45.99330156923458</v>
       </c>
       <c r="C93">
-        <v>46.00246254742071</v>
+        <v>46.14122327519898</v>
       </c>
       <c r="D93">
-        <v>46.15441915886368</v>
+        <v>45.98176565232511</v>
       </c>
       <c r="E93">
-        <v>46.06454392383015</v>
+        <v>46.56313256202005</v>
       </c>
       <c r="F93">
-        <v>45.98363740399158</v>
+        <v>45.98211669783861</v>
       </c>
     </row>
     <row r="94" spans="1:6">
@@ -2234,19 +2234,19 @@
         <v>92</v>
       </c>
       <c r="B94">
-        <v>45.85163226749869</v>
+        <v>45.84367164091487</v>
       </c>
       <c r="C94">
-        <v>45.85231776170392</v>
+        <v>45.99229210783399</v>
       </c>
       <c r="D94">
-        <v>46.00525659877084</v>
+        <v>45.83180419474947</v>
       </c>
       <c r="E94">
-        <v>45.91500135008377</v>
+        <v>46.41484060911299</v>
       </c>
       <c r="F94">
-        <v>45.83345825242252</v>
+        <v>45.83195908328834</v>
       </c>
     </row>
     <row r="95" spans="1:6">
@@ -2254,19 +2254,19 @@
         <v>93</v>
       </c>
       <c r="B95">
-        <v>45.70222275564578</v>
+        <v>45.69394570684905</v>
       </c>
       <c r="C95">
-        <v>45.70216672521151</v>
+        <v>45.84314427093288</v>
       </c>
       <c r="D95">
-        <v>45.85591842874516</v>
+        <v>45.68181360099066</v>
       </c>
       <c r="E95">
-        <v>45.76532601944736</v>
+        <v>46.26615974651013</v>
       </c>
       <c r="F95">
-        <v>45.68328363167728</v>
+        <v>45.68180317990769</v>
       </c>
     </row>
     <row r="96" spans="1:6">
@@ -2274,19 +2274,19 @@
         <v>94</v>
       </c>
       <c r="B96">
-        <v>45.55272011020003</v>
+        <v>45.54417332788723</v>
       </c>
       <c r="C96">
-        <v>45.5520423338866</v>
+        <v>45.693847466436</v>
       </c>
       <c r="D96">
-        <v>45.70646378516268</v>
+        <v>45.53183001353892</v>
       </c>
       <c r="E96">
-        <v>45.61557606335338</v>
+        <v>46.11718624755161</v>
       </c>
       <c r="F96">
-        <v>45.53314431215899</v>
+        <v>45.53168022530971</v>
       </c>
     </row>
     <row r="97" spans="1:6">
@@ -2294,19 +2294,19 @@
         <v>95</v>
       </c>
       <c r="B97">
-        <v>45.40317040608873</v>
+        <v>45.39439353932308</v>
       </c>
       <c r="C97">
-        <v>45.40197026018424</v>
+        <v>45.54445607030489</v>
       </c>
       <c r="D97">
-        <v>45.55694040510566</v>
+        <v>45.38188187891196</v>
       </c>
       <c r="E97">
-        <v>45.46579704161801</v>
+        <v>45.96799829562688</v>
       </c>
       <c r="F97">
-        <v>45.38306429428224</v>
+        <v>45.38161446475653</v>
       </c>
     </row>
     <row r="98" spans="1:6">
@@ -2314,19 +2314,19 @@
         <v>96</v>
       </c>
       <c r="B98">
-        <v>45.25361042018981</v>
+        <v>45.24463731928087</v>
       </c>
       <c r="C98">
-        <v>45.25197062622061</v>
+        <v>45.39501389374541</v>
       </c>
       <c r="D98">
-        <v>45.40738692891451</v>
+        <v>45.23199167587619</v>
       </c>
       <c r="E98">
-        <v>45.31602476508563</v>
+        <v>45.81865950271836</v>
       </c>
       <c r="F98">
-        <v>45.23306224617368</v>
+        <v>45.23162474985965</v>
       </c>
     </row>
     <row r="99" spans="1:6">
@@ -2334,19 +2334,19 @@
         <v>97</v>
       </c>
       <c r="B99">
-        <v>45.10406958314888</v>
+        <v>45.09492925009084</v>
       </c>
       <c r="C99">
-        <v>45.10205917425046</v>
+        <v>45.24555633753884</v>
       </c>
       <c r="D99">
-        <v>45.25783471835969</v>
+        <v>45.08217717206604</v>
       </c>
       <c r="E99">
-        <v>45.16628758745249</v>
+        <v>45.66922171690986</v>
       </c>
       <c r="F99">
-        <v>45.08315268763567</v>
+        <v>45.08172585706055</v>
       </c>
     </row>
     <row r="100" spans="1:6">
@@ -2354,19 +2354,19 @@
         <v>98</v>
       </c>
       <c r="B100">
-        <v>44.95457157078638</v>
+        <v>44.94528877928082</v>
       </c>
       <c r="C100">
-        <v>44.95224819350823</v>
+        <v>45.09611208816742</v>
       </c>
       <c r="D100">
-        <v>45.10830922492649</v>
+        <v>44.93245243963833</v>
       </c>
       <c r="E100">
-        <v>45.01660800374353</v>
+        <v>45.51972738931546</v>
       </c>
       <c r="F100">
-        <v>44.93334698987408</v>
+        <v>44.9319294473597</v>
       </c>
     </row>
     <row r="101" spans="1:6">
@@ -2374,19 +2374,19 @@
         <v>99</v>
       </c>
       <c r="B101">
-        <v>44.80513552427036</v>
+        <v>44.7957313326344</v>
       </c>
       <c r="C101">
-        <v>44.80254731709076</v>
+        <v>44.94670443643791</v>
       </c>
       <c r="D101">
-        <v>44.95883125283792</v>
+        <v>44.78282861198746</v>
       </c>
       <c r="E101">
-        <v>44.8670038304782</v>
+        <v>45.37021136410709</v>
       </c>
       <c r="F101">
-        <v>44.78365412991088</v>
+        <v>44.78224473015046</v>
       </c>
     </row>
     <row r="102" spans="1:6">
@@ -2394,19 +2394,19 @@
         <v>100</v>
       </c>
       <c r="B102">
-        <v>44.65577692801498</v>
+        <v>44.64626923933807</v>
       </c>
       <c r="C102">
-        <v>44.65296416060013</v>
+        <v>44.79735233619035</v>
       </c>
       <c r="D102">
-        <v>44.8094178863554</v>
+        <v>44.63331462824708</v>
       </c>
       <c r="E102">
-        <v>44.71748917190011</v>
+        <v>45.22070225200275</v>
       </c>
       <c r="F102">
-        <v>44.63408121323977</v>
+        <v>44.63267896701169</v>
       </c>
     </row>
     <row r="103" spans="1:6">
@@ -2414,19 +2414,19 @@
         <v>101</v>
       </c>
       <c r="B103">
-        <v>44.50650830742808</v>
+        <v>44.49691240705987</v>
       </c>
       <c r="C103">
-        <v>44.50350477672701</v>
+        <v>44.64807143843576</v>
       </c>
       <c r="D103">
-        <v>44.66008313170408</v>
+        <v>44.48391765679919</v>
       </c>
       <c r="E103">
-        <v>44.56807524106433</v>
+        <v>45.0712235297246</v>
       </c>
       <c r="F103">
-        <v>44.48463385190023</v>
+        <v>44.48323786310742</v>
       </c>
     </row>
     <row r="104" spans="1:6">
@@ -2434,19 +2434,19 @@
         <v>102</v>
       </c>
       <c r="B104">
-        <v>44.3573397530832</v>
+        <v>44.34766879967672</v>
       </c>
       <c r="C104">
-        <v>44.35417397369251</v>
+        <v>44.4988745516306</v>
       </c>
       <c r="D104">
-        <v>44.51083849074096</v>
+        <v>44.33464339744237</v>
       </c>
       <c r="E104">
-        <v>44.41877101388737</v>
+        <v>44.92179450890156</v>
       </c>
       <c r="F104">
-        <v>44.335316467506</v>
+        <v>44.33392597267177</v>
       </c>
     </row>
     <row r="105" spans="1:6">
@@ -2454,19 +2454,19 @@
         <v>103</v>
       </c>
       <c r="B105">
-        <v>44.2082794918429</v>
+        <v>44.19854480978915</v>
       </c>
       <c r="C105">
-        <v>44.20497555372793</v>
+        <v>44.34977214983632</v>
       </c>
       <c r="D105">
-        <v>44.36169340721805</v>
+        <v>44.1854966607543</v>
       </c>
       <c r="E105">
-        <v>44.26958370557946</v>
+        <v>44.77243113849772</v>
       </c>
       <c r="F105">
-        <v>44.18613254384128</v>
+        <v>44.18474689766487</v>
       </c>
     </row>
     <row r="106" spans="1:6">
@@ -2474,19 +2474,19 @@
         <v>104</v>
       </c>
       <c r="B106">
-        <v>44.05933425944056</v>
+        <v>44.04954555940306</v>
       </c>
       <c r="C106">
-        <v>44.05591250313062</v>
+        <v>44.20077284181701</v>
       </c>
       <c r="D106">
-        <v>44.21265565405903</v>
+        <v>44.03648110508124</v>
       </c>
       <c r="E106">
-        <v>44.12051911515287</v>
+        <v>44.62314665702592</v>
       </c>
       <c r="F106">
-        <v>44.03708484860363</v>
+        <v>44.03570353977847</v>
       </c>
     </row>
     <row r="107" spans="1:6">
@@ -2494,19 +2494,19 @@
         <v>105</v>
       </c>
       <c r="B107">
-        <v>43.91050957416183</v>
+        <v>43.90067519266996</v>
       </c>
       <c r="C107">
-        <v>43.9069872201771</v>
+        <v>44.05188371495973</v>
       </c>
       <c r="D107">
-        <v>44.06373164342337</v>
+        <v>43.88759969941984</v>
       </c>
       <c r="E107">
-        <v>43.97158189066472</v>
+        <v>44.4739520551446</v>
       </c>
       <c r="F107">
-        <v>43.8881756405607</v>
+        <v>43.88679827617918</v>
       </c>
     </row>
     <row r="108" spans="1:6">
@@ -2514,19 +2514,19 @@
         <v>106</v>
       </c>
       <c r="B108">
-        <v>43.76180995427347</v>
+        <v>43.75193700328696</v>
       </c>
       <c r="C108">
-        <v>43.75820155417833</v>
+        <v>43.90311064284978</v>
       </c>
       <c r="D108">
-        <v>43.91492670974487</v>
+        <v>43.73885483105462</v>
       </c>
       <c r="E108">
-        <v>43.82277573492969</v>
+        <v>44.32485645748314</v>
       </c>
       <c r="F108">
-        <v>43.73940663392762</v>
+        <v>43.73803290395576</v>
       </c>
     </row>
     <row r="109" spans="1:6">
@@ -2534,19 +2534,19 @@
         <v>107</v>
       </c>
       <c r="B109">
-        <v>43.61323909774922</v>
+        <v>43.60333379010503</v>
       </c>
       <c r="C109">
-        <v>43.60955709687599</v>
+        <v>43.7544585146027</v>
       </c>
       <c r="D109">
-        <v>43.76624528718057</v>
+        <v>43.59024840899545</v>
       </c>
       <c r="E109">
-        <v>43.67410365704757</v>
+        <v>44.17586744863701</v>
       </c>
       <c r="F109">
-        <v>43.59077933338632</v>
+        <v>43.58940889951</v>
       </c>
     </row>
     <row r="110" spans="1:6">
@@ -2554,19 +2554,19 @@
         <v>108</v>
       </c>
       <c r="B110">
-        <v>43.46480001275045</v>
+        <v>43.45486772640074</v>
       </c>
       <c r="C110">
-        <v>43.46105501872309</v>
+        <v>43.60593139307755</v>
       </c>
       <c r="D110">
-        <v>43.61769106088198</v>
+        <v>43.44178198601536</v>
       </c>
       <c r="E110">
-        <v>43.52556801579167</v>
+        <v>44.02699134440213</v>
       </c>
       <c r="F110">
-        <v>43.4422948091478</v>
+        <v>43.44092739276598</v>
       </c>
     </row>
     <row r="111" spans="1:6">
@@ -2574,19 +2574,19 @@
         <v>109</v>
       </c>
       <c r="B111">
-        <v>43.31649520581932</v>
+        <v>43.30654061433579</v>
       </c>
       <c r="C111">
-        <v>43.31269631337491</v>
+        <v>43.45753265522028</v>
       </c>
       <c r="D111">
-        <v>43.46926710046862</v>
+        <v>43.29345683207938</v>
       </c>
       <c r="E111">
-        <v>43.3771708549916</v>
+        <v>43.87823336955205</v>
       </c>
       <c r="F111">
-        <v>43.29395393706893</v>
+        <v>43.29258927525369</v>
       </c>
     </row>
     <row r="112" spans="1:6">
@@ -2594,19 +2594,19 @@
         <v>110</v>
       </c>
       <c r="B112">
-        <v>43.16832669285986</v>
+        <v>43.15835391228387</v>
       </c>
       <c r="C112">
-        <v>43.1644817319447</v>
+        <v>43.30926510836125</v>
       </c>
       <c r="D112">
-        <v>43.3209759362266</v>
+        <v>43.14527398316152</v>
       </c>
       <c r="E112">
-        <v>43.22891370437588</v>
+        <v>43.72959797596339</v>
       </c>
       <c r="F112">
-        <v>43.14575739271437</v>
+        <v>43.14439525237898</v>
       </c>
     </row>
     <row r="113" spans="1:6">
@@ -2614,19 +2614,19 @@
         <v>111</v>
       </c>
       <c r="B113">
-        <v>43.02029621626306</v>
+        <v>43.01030874585527</v>
       </c>
       <c r="C113">
-        <v>43.01641183596185</v>
+        <v>43.16113107542366</v>
       </c>
       <c r="D113">
-        <v>43.17281967329691</v>
+        <v>42.99723425006686</v>
       </c>
       <c r="E113">
-        <v>43.08079789141503</v>
+        <v>43.58108877095125</v>
       </c>
       <c r="F113">
-        <v>42.9977056877833</v>
+        <v>42.99634589251081</v>
       </c>
     </row>
     <row r="114" spans="1:6">
@@ -2634,19 +2634,19 @@
         <v>112</v>
       </c>
       <c r="B114">
-        <v>42.87240515607252</v>
+        <v>42.86240604067569</v>
       </c>
       <c r="C114">
-        <v>42.86848707551946</v>
+        <v>43.01313251560561</v>
       </c>
       <c r="D114">
-        <v>43.02480007811538</v>
+        <v>42.84933828375182</v>
       </c>
       <c r="E114">
-        <v>42.93282442368665</v>
+        <v>43.43270898632882</v>
       </c>
       <c r="F114">
-        <v>42.84979922254909</v>
+        <v>42.84844162726399</v>
       </c>
     </row>
     <row r="115" spans="1:6">
@@ -2654,19 +2654,19 @@
         <v>113</v>
       </c>
       <c r="B115">
-        <v>42.72465467038391</v>
+        <v>42.71464652797645</v>
       </c>
       <c r="C115">
-        <v>42.72070777453678</v>
+        <v>42.86527101331739</v>
       </c>
       <c r="D115">
-        <v>42.87691861927975</v>
+        <v>42.70158659498728</v>
       </c>
       <c r="E115">
-        <v>42.78499409272849</v>
+        <v>43.28446114841877</v>
       </c>
       <c r="F115">
-        <v>42.70203831114959</v>
+        <v>42.70068279837639</v>
       </c>
     </row>
     <row r="116" spans="1:6">
@@ -2674,19 +2674,19 @@
         <v>114</v>
       </c>
       <c r="B116">
-        <v>42.57704571032865</v>
+        <v>42.567030789977</v>
       </c>
       <c r="C116">
-        <v>42.57307418010865</v>
+        <v>42.71754799544766</v>
       </c>
       <c r="D116">
-        <v>42.72917654537687</v>
+        <v>42.55397958300957</v>
       </c>
       <c r="E116">
-        <v>42.63730754242255</v>
+        <v>43.13634754007422</v>
       </c>
       <c r="F116">
-        <v>42.55442317712266</v>
+        <v>42.55306965614935</v>
       </c>
     </row>
     <row r="117" spans="1:6">
@@ -2694,19 +2694,19 @@
         <v>115</v>
       </c>
       <c r="B117">
-        <v>42.42957901874941</v>
+        <v>42.41955930632994</v>
       </c>
       <c r="C117">
-        <v>42.42558648130137</v>
+        <v>42.56996453849291</v>
       </c>
       <c r="D117">
-        <v>42.58157488631937</v>
+        <v>42.40651755787272</v>
       </c>
       <c r="E117">
-        <v>42.48976525791235</v>
+        <v>42.98836995061175</v>
       </c>
       <c r="F117">
-        <v>42.40695400126822</v>
+        <v>42.40560237640469</v>
       </c>
     </row>
     <row r="118" spans="1:6">
@@ -2714,19 +2714,19 @@
         <v>116</v>
       </c>
       <c r="B118">
-        <v>42.28225522033834</v>
+        <v>42.27223244529109</v>
       </c>
       <c r="C118">
-        <v>42.2782447981211</v>
+        <v>42.42252167092795</v>
       </c>
       <c r="D118">
-        <v>42.43411450146348</v>
+        <v>42.25920076221924</v>
       </c>
       <c r="E118">
-        <v>42.3423676265359</v>
+        <v>42.84052991990955</v>
       </c>
       <c r="F118">
-        <v>42.25963088999507</v>
+        <v>42.25828108125098</v>
       </c>
     </row>
     <row r="119" spans="1:6">
@@ -2734,19 +2734,19 @@
         <v>117</v>
       </c>
       <c r="B119">
-        <v>42.13507480313152</v>
+        <v>42.12505048874203</v>
       </c>
       <c r="C119">
-        <v>42.13104922650037</v>
+        <v>42.27522012994799</v>
       </c>
       <c r="D119">
-        <v>42.28679610135818</v>
+        <v>42.11202937466823</v>
       </c>
       <c r="E119">
-        <v>42.19511495464894</v>
+        <v>42.69282871258403</v>
       </c>
       <c r="F119">
-        <v>42.11245391173438</v>
+        <v>42.11110584660265</v>
       </c>
     </row>
     <row r="120" spans="1:6">
@@ -2754,19 +2754,19 @@
         <v>118</v>
       </c>
       <c r="B120">
-        <v>41.98803816681066</v>
+        <v>41.9780136578437</v>
       </c>
       <c r="C120">
-        <v>41.98399980200823</v>
+        <v>42.12806060784348</v>
       </c>
       <c r="D120">
-        <v>42.13962025479127</v>
+        <v>41.96500352072406</v>
       </c>
       <c r="E120">
-        <v>42.04800746217506</v>
+        <v>42.54526737856762</v>
       </c>
       <c r="F120">
-        <v>41.96542309563102</v>
+        <v>41.96407671196449</v>
       </c>
     </row>
     <row r="121" spans="1:6">
@@ -2774,19 +2774,19 @@
         <v>119</v>
       </c>
       <c r="B121">
-        <v>41.84114563457248</v>
+        <v>41.83112210204574</v>
       </c>
       <c r="C121">
-        <v>41.83709653915584</v>
+        <v>41.98104361322434</v>
       </c>
       <c r="D121">
-        <v>41.9925874364539</v>
+        <v>41.81812328474788</v>
       </c>
       <c r="E121">
-        <v>41.90104533339542</v>
+        <v>42.39784681148321</v>
       </c>
       <c r="F121">
-        <v>41.81853844077735</v>
+        <v>41.81719368806888</v>
       </c>
     </row>
     <row r="122" spans="1:6">
@@ -2794,19 +2794,19 @@
         <v>120</v>
       </c>
       <c r="B122">
-        <v>41.69439745145689</v>
+        <v>41.68437592728544</v>
       </c>
       <c r="C122">
-        <v>41.69033941802476</v>
+        <v>41.83416959161957</v>
       </c>
       <c r="D122">
-        <v>41.84569801986418</v>
+        <v>41.67138871206823</v>
       </c>
       <c r="E122">
-        <v>41.75422867557396</v>
+        <v>42.25056774184694</v>
       </c>
       <c r="F122">
-        <v>41.67179992282928</v>
+        <v>41.67045676119417</v>
       </c>
     </row>
     <row r="123" spans="1:6">
@@ -2814,19 +2814,19 @@
         <v>121</v>
       </c>
       <c r="B123">
-        <v>41.54779382368977</v>
+        <v>41.53777519951882</v>
       </c>
       <c r="C123">
-        <v>41.54372839953455</v>
+        <v>41.68743889104783</v>
       </c>
       <c r="D123">
-        <v>41.69895231729029</v>
+        <v>41.5247998179446</v>
       </c>
       <c r="E123">
-        <v>41.60755756751827</v>
+        <v>42.10343080996811</v>
       </c>
       <c r="F123">
-        <v>41.52520750009764</v>
+        <v>41.52386589404698</v>
       </c>
     </row>
     <row r="124" spans="1:6">
@@ -2834,19 +2834,19 @@
         <v>122</v>
       </c>
       <c r="B124">
-        <v>41.40133488808389</v>
+        <v>41.39131995149577</v>
       </c>
       <c r="C124">
-        <v>41.39726342694528</v>
+        <v>41.54085179982434</v>
       </c>
       <c r="D124">
-        <v>41.55235056738329</v>
+        <v>41.37835659687492</v>
       </c>
       <c r="E124">
-        <v>41.46103204187975</v>
+        <v>41.95643651916947</v>
       </c>
       <c r="F124">
-        <v>41.37876111235315</v>
+        <v>41.37742103325819</v>
       </c>
     </row>
     <row r="125" spans="1:6">
@@ -2854,19 +2854,19 @@
         <v>123</v>
       </c>
       <c r="B125">
-        <v>41.25502075208993</v>
+        <v>41.24501019128152</v>
       </c>
       <c r="C125">
-        <v>41.25094442972114</v>
+        <v>41.39440854743311</v>
       </c>
       <c r="D125">
-        <v>41.40589297567487</v>
+        <v>41.23205901462503</v>
       </c>
       <c r="E125">
-        <v>41.3146521052455</v>
+        <v>41.80958531025863</v>
       </c>
       <c r="F125">
-        <v>41.23246068949929</v>
+        <v>41.23112210931156</v>
       </c>
     </row>
     <row r="126" spans="1:6">
@@ -2874,19 +2874,19 @@
         <v>124</v>
       </c>
       <c r="B126">
-        <v>41.10885147793179</v>
+        <v>41.09884590307421</v>
       </c>
       <c r="C126">
-        <v>41.10477132669975</v>
+        <v>41.24810931693123</v>
       </c>
       <c r="D126">
-        <v>41.25957968232921</v>
+        <v>41.08590703550497</v>
       </c>
       <c r="E126">
-        <v>41.16841774037447</v>
+        <v>41.66287752122719</v>
       </c>
       <c r="F126">
-        <v>41.08630614635515</v>
+        <v>41.08496904094167</v>
       </c>
     </row>
     <row r="127" spans="1:6">
@@ -2894,19 +2894,19 @@
         <v>125</v>
       </c>
       <c r="B127">
-        <v>40.96282710139867</v>
+        <v>40.95282705033311</v>
       </c>
       <c r="C127">
-        <v>40.95874402684874</v>
+        <v>41.10195424862827</v>
       </c>
       <c r="D127">
-        <v>41.11341080995713</v>
+        <v>40.9399005903464</v>
       </c>
       <c r="E127">
-        <v>41.02232890968359</v>
+        <v>41.51631343304241</v>
       </c>
       <c r="F127">
-        <v>40.94029738924957</v>
+        <v>40.93896173614024</v>
       </c>
     </row>
     <row r="128" spans="1:6">
@@ -2914,19 +2914,19 @@
         <v>126</v>
       </c>
       <c r="B128">
-        <v>40.81694763273496</v>
+        <v>40.80695358199198</v>
       </c>
       <c r="C128">
-        <v>40.81286242939662</v>
+        <v>40.95594344403899</v>
       </c>
       <c r="D128">
-        <v>40.9673864275499</v>
+        <v>40.79403961666385</v>
       </c>
       <c r="E128">
-        <v>40.87638556167305</v>
+        <v>41.36989326294479</v>
       </c>
       <c r="F128">
-        <v>40.79443431597398</v>
+        <v>40.79310009589451</v>
       </c>
     </row>
     <row r="129" spans="1:6">
@@ -2934,19 +2934,19 @@
         <v>127</v>
       </c>
       <c r="B129">
-        <v>40.67121305986526</v>
+        <v>40.66122543092104</v>
       </c>
       <c r="C129">
-        <v>40.66712642826896</v>
+        <v>40.81007697490796</v>
       </c>
       <c r="D129">
-        <v>40.82150658813534</v>
+        <v>40.64832402989144</v>
       </c>
       <c r="E129">
-        <v>40.73058762946182</v>
+        <v>41.22361717985492</v>
       </c>
       <c r="F129">
-        <v>40.64871681767687</v>
+        <v>40.64738401433934</v>
       </c>
     </row>
     <row r="130" spans="1:6">
@@ -2954,19 +2954,19 @@
         <v>128</v>
       </c>
       <c r="B130">
-        <v>40.52562335595164</v>
+        <v>40.51564251904774</v>
       </c>
       <c r="C130">
-        <v>40.52153590949139</v>
+        <v>40.6643548806184</v>
       </c>
       <c r="D130">
-        <v>40.67577130990169</v>
+        <v>40.50275373848744</v>
       </c>
       <c r="E130">
-        <v>40.5849350343182</v>
+        <v>41.07748531395416</v>
       </c>
       <c r="F130">
-        <v>40.50314478016143</v>
+        <v>40.50181337794714</v>
       </c>
     </row>
     <row r="131" spans="1:6">
@@ -2974,19 +2974,19 @@
         <v>129</v>
       </c>
       <c r="B131">
-        <v>40.38017847549852</v>
+        <v>40.37020475886181</v>
       </c>
       <c r="C131">
-        <v>40.37609075487905</v>
+        <v>40.51877718009614</v>
       </c>
       <c r="D131">
-        <v>40.53018059402073</v>
+        <v>40.357328645846</v>
       </c>
       <c r="E131">
-        <v>40.43942768835441</v>
+        <v>40.93149775689766</v>
       </c>
       <c r="F131">
-        <v>40.35771808511345</v>
+        <v>40.3563880743187</v>
       </c>
     </row>
     <row r="132" spans="1:6">
@@ -2994,19 +2994,19 @@
         <v>130</v>
       </c>
       <c r="B132">
-        <v>40.23487836242536</v>
+        <v>40.22491205450095</v>
       </c>
       <c r="C132">
-        <v>40.23079084213718</v>
+        <v>40.37334386932298</v>
       </c>
       <c r="D132">
-        <v>40.38473442163612</v>
+        <v>40.21204864376459</v>
       </c>
       <c r="E132">
-        <v>40.2940654935415</v>
+        <v>40.78565457647255</v>
       </c>
       <c r="F132">
-        <v>40.21243660999131</v>
+        <v>40.21110797827294</v>
       </c>
     </row>
     <row r="133" spans="1:6">
@@ -3014,19 +3014,19 @@
         <v>131</v>
       </c>
       <c r="B133">
-        <v>40.08972294700485</v>
+        <v>40.07976430355705</v>
       </c>
       <c r="C133">
-        <v>40.08563604557564</v>
+        <v>40.22805492889311</v>
       </c>
       <c r="D133">
-        <v>40.23943275896561</v>
+        <v>40.06691362240903</v>
       </c>
       <c r="E133">
-        <v>40.14884834552303</v>
+        <v>40.63995580772794</v>
       </c>
       <c r="F133">
-        <v>40.06730022974872</v>
+        <v>40.06597297085288</v>
       </c>
     </row>
     <row r="134" spans="1:6">
@@ -3034,19 +3034,19 @@
         <v>132</v>
       </c>
       <c r="B134">
-        <v>39.9447121500695</v>
+        <v>39.9347613977103</v>
       </c>
       <c r="C134">
-        <v>39.94062623735425</v>
+        <v>40.08291032283239</v>
       </c>
       <c r="D134">
-        <v>40.09427555934682</v>
+        <v>39.92192346513222</v>
       </c>
       <c r="E134">
-        <v>40.00377613381987</v>
+        <v>40.4944014686954</v>
       </c>
       <c r="F134">
-        <v>39.92230881594525</v>
+        <v>39.92098292132585</v>
       </c>
     </row>
     <row r="135" spans="1:6">
@@ -3054,19 +3054,19 @@
         <v>133</v>
       </c>
       <c r="B135">
-        <v>39.79984588402016</v>
+        <v>39.78990322238975</v>
       </c>
       <c r="C135">
-        <v>39.79576128678249</v>
+        <v>39.937910005154</v>
       </c>
       <c r="D135">
-        <v>39.94926276410308</v>
+        <v>39.77707805287895</v>
       </c>
       <c r="E135">
-        <v>39.85884874306872</v>
+        <v>40.34899155233783</v>
       </c>
       <c r="F135">
-        <v>39.77746223806278</v>
+        <v>39.77613770224265</v>
       </c>
     </row>
     <row r="136" spans="1:6">
@@ -3074,19 +3074,19 @@
         <v>134</v>
       </c>
       <c r="B136">
-        <v>39.65512405360337</v>
+        <v>39.64518966128371</v>
       </c>
       <c r="C136">
-        <v>39.65104106173934</v>
+        <v>39.79305391551864</v>
       </c>
       <c r="D136">
-        <v>39.80439430517872</v>
+        <v>39.63237726230706</v>
       </c>
       <c r="E136">
-        <v>39.71406605439284</v>
+        <v>40.20372603665805</v>
       </c>
       <c r="F136">
-        <v>39.63276036355953</v>
+        <v>39.63143718137933</v>
       </c>
     </row>
     <row r="137" spans="1:6">
@@ -3094,19 +3094,19 @@
         <v>135</v>
       </c>
       <c r="B137">
-        <v>39.51054655781551</v>
+        <v>39.50062059141732</v>
       </c>
       <c r="C137">
-        <v>39.50646542801761</v>
+        <v>39.64834198675634</v>
       </c>
       <c r="D137">
-        <v>39.65967010440364</v>
+        <v>39.48782096949643</v>
       </c>
       <c r="E137">
-        <v>39.56942794479642</v>
+        <v>40.05860488328307</v>
       </c>
       <c r="F137">
-        <v>39.48820305820903</v>
+        <v>39.48688122465399</v>
       </c>
     </row>
     <row r="138" spans="1:6">
@@ -3114,19 +3114,19 @@
         <v>136</v>
       </c>
       <c r="B138">
-        <v>39.36611329014124</v>
+        <v>39.35619588961617</v>
       </c>
       <c r="C138">
-        <v>39.36203425010037</v>
+        <v>39.50377414018367</v>
       </c>
       <c r="D138">
-        <v>39.5150900768492</v>
+        <v>39.34340904553495</v>
       </c>
       <c r="E138">
-        <v>39.4249342891042</v>
+        <v>39.91362804094575</v>
       </c>
       <c r="F138">
-        <v>39.34379018674763</v>
+        <v>39.34246969712038</v>
       </c>
     </row>
     <row r="139" spans="1:6">
@@ -3134,19 +3134,19 @@
         <v>137</v>
       </c>
       <c r="B139">
-        <v>39.22182413970529</v>
+        <v>39.21191543020664</v>
       </c>
       <c r="C139">
-        <v>39.21774739130866</v>
+        <v>39.35935029125957</v>
       </c>
       <c r="D139">
-        <v>39.37065412947361</v>
+        <v>39.19914136240106</v>
       </c>
       <c r="E139">
-        <v>39.28058495890825</v>
+        <v>39.76879544801847</v>
       </c>
       <c r="F139">
-        <v>39.1995216122477</v>
+        <v>39.19820246244472</v>
       </c>
     </row>
     <row r="140" spans="1:6">
@@ -3154,19 +3154,19 @@
         <v>138</v>
       </c>
       <c r="B140">
-        <v>39.07767899172418</v>
+        <v>39.06777908219223</v>
       </c>
       <c r="C140">
-        <v>39.07360471397749</v>
+        <v>39.21507034755225</v>
       </c>
       <c r="D140">
-        <v>39.22636216415039</v>
+        <v>39.0550177884119</v>
       </c>
       <c r="E140">
-        <v>39.136379823962</v>
+        <v>39.62410703225334</v>
       </c>
       <c r="F140">
-        <v>39.05539719760588</v>
+        <v>39.05407938360802</v>
       </c>
     </row>
     <row r="141" spans="1:6">
@@ -3174,19 +3174,19 @@
         <v>139</v>
       </c>
       <c r="B141">
-        <v>38.93367772761507</v>
+        <v>38.92378671763682</v>
       </c>
       <c r="C141">
-        <v>38.92960607962102</v>
+        <v>39.07093421137562</v>
       </c>
       <c r="D141">
-        <v>39.08221407698863</v>
+        <v>38.9110381908708</v>
       </c>
       <c r="E141">
-        <v>38.99231875204737</v>
+        <v>39.47956271454522</v>
       </c>
       <c r="F141">
-        <v>38.91141680480816</v>
+        <v>38.91010032240801</v>
       </c>
     </row>
     <row r="142" spans="1:6">
@@ -3194,19 +3194,19 @@
         <v>140</v>
       </c>
       <c r="B142">
-        <v>38.78982022624452</v>
+        <v>38.77993820174729</v>
       </c>
       <c r="C142">
-        <v>38.7857513491391</v>
+        <v>38.92694177995425</v>
       </c>
       <c r="D142">
-        <v>38.93820976017741</v>
+        <v>38.76720243597094</v>
       </c>
       <c r="E142">
-        <v>38.84840160933353</v>
+        <v>39.33516240693783</v>
       </c>
       <c r="F142">
-        <v>38.76758029457006</v>
+        <v>38.76626514096466</v>
       </c>
     </row>
     <row r="143" spans="1:6">
@@ -3214,19 +3214,19 @@
         <v>141</v>
       </c>
       <c r="B143">
-        <v>38.646106363456</v>
+        <v>38.63623340211903</v>
       </c>
       <c r="C143">
-        <v>38.6420403832171</v>
+        <v>38.78309294599462</v>
       </c>
       <c r="D143">
-        <v>38.79434910157934</v>
+        <v>38.62351038819885</v>
       </c>
       <c r="E143">
-        <v>38.70462826101542</v>
+        <v>39.19090601636958</v>
       </c>
       <c r="F143">
-        <v>38.62388752837047</v>
+        <v>38.6225736996466</v>
       </c>
     </row>
     <row r="144" spans="1:6">
@@ -3234,19 +3234,19 @@
         <v>142</v>
       </c>
       <c r="B144">
-        <v>38.50253601308818</v>
+        <v>38.49267218348333</v>
       </c>
       <c r="C144">
-        <v>38.49847304135119</v>
+        <v>38.63938759889155</v>
       </c>
       <c r="D144">
-        <v>38.65063198639722</v>
+        <v>38.47996191151073</v>
       </c>
       <c r="E144">
-        <v>38.56099857095119</v>
+        <v>39.04679344297426</v>
       </c>
       <c r="F144">
-        <v>38.48033836568902</v>
+        <v>38.47902585944743</v>
       </c>
     </row>
     <row r="145" spans="1:6">
@@ -3254,19 +3254,19 @@
         <v>143</v>
       </c>
       <c r="B145">
-        <v>38.35910904697563</v>
+        <v>38.34925440940223</v>
       </c>
       <c r="C145">
-        <v>38.35504918373888</v>
+        <v>38.49582562400486</v>
       </c>
       <c r="D145">
-        <v>38.50705829612429</v>
+        <v>38.33655686893484</v>
       </c>
       <c r="E145">
-        <v>38.41751240216645</v>
+        <v>38.90282458250275</v>
       </c>
       <c r="F145">
-        <v>38.33693266687514</v>
+        <v>38.33562148042247</v>
       </c>
     </row>
     <row r="146" spans="1:6">
@@ -3274,19 +3274,19 @@
         <v>144</v>
       </c>
       <c r="B146">
-        <v>38.2158253350821</v>
+        <v>38.2059799431328</v>
       </c>
       <c r="C146">
-        <v>38.21176866973559</v>
+        <v>38.35240690454469</v>
       </c>
       <c r="D146">
-        <v>38.36362791038059</v>
+        <v>38.19329512292223</v>
       </c>
       <c r="E146">
-        <v>38.27416961773817</v>
+        <v>38.75899932605728</v>
       </c>
       <c r="F146">
-        <v>38.19367029144219</v>
+        <v>38.19236042217278</v>
       </c>
     </row>
     <row r="147" spans="1:6">
@@ -3294,19 +3294,19 @@
         <v>145</v>
       </c>
       <c r="B147">
-        <v>38.07268474628639</v>
+        <v>38.06284864696325</v>
       </c>
       <c r="C147">
-        <v>38.06863135826882</v>
+        <v>38.20913132031213</v>
       </c>
       <c r="D147">
-        <v>38.22034070581059</v>
+        <v>38.05017653531871</v>
       </c>
       <c r="E147">
-        <v>38.13097007854739</v>
+        <v>38.61531756095943</v>
       </c>
       <c r="F147">
-        <v>38.05055109852167</v>
+        <v>38.04924254430779</v>
       </c>
     </row>
     <row r="148" spans="1:6">
@@ -3314,19 +3314,19 @@
         <v>146</v>
       </c>
       <c r="B148">
-        <v>37.92968714837102</v>
+        <v>37.91986038287904</v>
       </c>
       <c r="C148">
-        <v>37.92563710886325</v>
+        <v>38.06599874935666</v>
       </c>
       <c r="D148">
-        <v>38.07719655748637</v>
+        <v>37.90720096782076</v>
       </c>
       <c r="E148">
-        <v>37.98791364668948</v>
+        <v>38.47177917145512</v>
       </c>
       <c r="F148">
-        <v>37.90757494734556</v>
+        <v>37.90626770597348</v>
       </c>
     </row>
     <row r="149" spans="1:6">
@@ -3334,19 +3334,19 @@
         <v>147</v>
       </c>
       <c r="B149">
-        <v>37.78683240711066</v>
+        <v>37.77701501212006</v>
       </c>
       <c r="C149">
-        <v>37.78278577991197</v>
+        <v>37.92300906725963</v>
       </c>
       <c r="D149">
-        <v>37.93419533838075</v>
+        <v>37.76436828132167</v>
       </c>
       <c r="E149">
-        <v>37.84500018303021</v>
+        <v>38.32838403862694</v>
       </c>
       <c r="F149">
-        <v>37.76474169680176</v>
+        <v>37.76343576623572</v>
       </c>
     </row>
     <row r="150" spans="1:6">
@@ -3354,19 +3354,19 @@
         <v>148</v>
       </c>
       <c r="B150">
-        <v>37.64412038899882</v>
+        <v>37.63431239597539</v>
       </c>
       <c r="C150">
-        <v>37.64007723045408</v>
+        <v>37.78016214806778</v>
       </c>
       <c r="D150">
-        <v>37.79133692008448</v>
+        <v>37.62167833688351</v>
       </c>
       <c r="E150">
-        <v>37.70222954769179</v>
+        <v>38.18513204130231</v>
       </c>
       <c r="F150">
-        <v>37.62205120581368</v>
+        <v>37.62074658409565</v>
       </c>
     </row>
     <row r="151" spans="1:6">
@@ -3374,19 +3374,19 @@
         <v>149</v>
       </c>
       <c r="B151">
-        <v>37.50155095851591</v>
+        <v>37.49175239528537</v>
       </c>
       <c r="C151">
-        <v>37.49751131917357</v>
+        <v>37.63745786410605</v>
       </c>
       <c r="D151">
-        <v>37.64862117277365</v>
+        <v>37.47913099495414</v>
       </c>
       <c r="E151">
-        <v>37.55960160137236</v>
+        <v>38.0420230553893</v>
       </c>
       <c r="F151">
-        <v>37.47950333317007</v>
+        <v>37.47820001845799</v>
       </c>
     </row>
     <row r="152" spans="1:6">
@@ -3394,19 +3394,19 @@
         <v>150</v>
       </c>
       <c r="B152">
-        <v>37.35912397959895</v>
+        <v>37.34933487038694</v>
       </c>
       <c r="C152">
-        <v>37.35508790462804</v>
+        <v>37.49489608644874</v>
       </c>
       <c r="D152">
-        <v>37.50604796546875</v>
+        <v>37.33672611588095</v>
       </c>
       <c r="E152">
-        <v>37.41711620365333</v>
+        <v>37.89905695607954</v>
       </c>
       <c r="F152">
-        <v>37.33709793768904</v>
+        <v>37.33579592815979</v>
       </c>
     </row>
     <row r="153" spans="1:6">
@@ -3414,19 +3414,19 @@
         <v>151</v>
       </c>
       <c r="B153">
-        <v>37.21683931660687</v>
+        <v>37.20705968192675</v>
       </c>
       <c r="C153">
-        <v>37.212806845497</v>
+        <v>37.35247668488592</v>
       </c>
       <c r="D153">
-        <v>37.36361716620099</v>
+        <v>37.19446355983374</v>
       </c>
       <c r="E153">
-        <v>37.27477321447509</v>
+        <v>37.75623361587367</v>
       </c>
       <c r="F153">
-        <v>37.19483487821685</v>
+        <v>37.19353417212835</v>
       </c>
     </row>
     <row r="154" spans="1:6">
@@ -3434,19 +3434,19 @@
         <v>152</v>
       </c>
       <c r="B154">
-        <v>37.07469683170515</v>
+        <v>37.0649266897486</v>
       </c>
       <c r="C154">
-        <v>37.07066800041605</v>
+        <v>37.21019952823141</v>
       </c>
       <c r="D154">
-        <v>37.2213286420393</v>
+        <v>37.05234318676057</v>
       </c>
       <c r="E154">
-        <v>37.13257249345264</v>
+        <v>37.61355290561137</v>
       </c>
       <c r="F154">
-        <v>37.05271401347183</v>
+        <v>37.05141460923479</v>
       </c>
     </row>
     <row r="155" spans="1:6">
@@ -3454,19 +3454,19 @@
         <v>153</v>
       </c>
       <c r="B155">
-        <v>36.93269638799169</v>
+        <v>36.92293575401229</v>
       </c>
       <c r="C155">
-        <v>36.92867122809101</v>
+        <v>37.06806448430316</v>
       </c>
       <c r="D155">
-        <v>37.07918225935449</v>
+        <v>36.91036485656361</v>
       </c>
       <c r="E155">
-        <v>36.9905139000574</v>
+        <v>37.47101469693636</v>
       </c>
       <c r="F155">
-        <v>36.91073520240706</v>
+        <v>36.90943709834296</v>
       </c>
     </row>
     <row r="156" spans="1:6">
@@ -3474,19 +3474,19 @@
         <v>154</v>
       </c>
       <c r="B156">
-        <v>36.7908378476961</v>
+        <v>36.78108673455766</v>
       </c>
       <c r="C156">
-        <v>36.78681638726223</v>
+        <v>36.9260714201299</v>
       </c>
       <c r="D156">
-        <v>36.9371778837016</v>
+        <v>36.76852842905299</v>
       </c>
       <c r="E156">
-        <v>36.84859729380931</v>
+        <v>37.32861885724272</v>
       </c>
       <c r="F156">
-        <v>36.76889830380806</v>
+        <v>36.76760149843798</v>
       </c>
     </row>
     <row r="157" spans="1:6">
@@ -3494,19 +3494,19 @@
         <v>155</v>
       </c>
       <c r="B157">
-        <v>36.64912107247952</v>
+        <v>36.63937949114879</v>
       </c>
       <c r="C157">
-        <v>36.64510333672452</v>
+        <v>36.78422020200156</v>
       </c>
       <c r="D157">
-        <v>36.79531538014249</v>
+        <v>36.62683376400588</v>
       </c>
       <c r="E157">
-        <v>36.70682253407062</v>
+        <v>37.18636525508855</v>
       </c>
       <c r="F157">
-        <v>36.62720317663617</v>
+        <v>36.62590766841758</v>
       </c>
     </row>
     <row r="158" spans="1:6">
@@ -3514,19 +3514,19 @@
         <v>156</v>
       </c>
       <c r="B158">
-        <v>36.50754592409789</v>
+        <v>36.4978138835366</v>
       </c>
       <c r="C158">
-        <v>36.5035319354365</v>
+        <v>36.64251069546446</v>
       </c>
       <c r="D158">
-        <v>36.65359461301772</v>
+        <v>36.48528072116294</v>
       </c>
       <c r="E158">
-        <v>36.56518948034871</v>
+        <v>37.04425375842352</v>
       </c>
       <c r="F158">
-        <v>36.48564967988247</v>
+        <v>36.48435546732735</v>
       </c>
     </row>
     <row r="159" spans="1:6">
@@ -3534,19 +3534,19 @@
         <v>157</v>
       </c>
       <c r="B159">
-        <v>36.36611226391196</v>
+        <v>36.35638977145942</v>
       </c>
       <c r="C159">
-        <v>36.36210204227554</v>
+        <v>36.50094276564057</v>
       </c>
       <c r="D159">
-        <v>36.51201544641565</v>
+        <v>36.3438691603193</v>
       </c>
       <c r="E159">
-        <v>36.42369799210998</v>
+        <v>36.90228423205539</v>
       </c>
       <c r="F159">
-        <v>36.34423767256218</v>
+        <v>36.34294475422593</v>
       </c>
     </row>
     <row r="160" spans="1:6">
@@ -3554,19 +3554,19 @@
         <v>158</v>
       </c>
       <c r="B160">
-        <v>36.22481995320348</v>
+        <v>36.21510701466295</v>
       </c>
       <c r="C160">
-        <v>36.22081351636223</v>
+        <v>36.35951627726994</v>
       </c>
       <c r="D160">
-        <v>36.37057774402981</v>
+        <v>36.20259894120167</v>
       </c>
       <c r="E160">
-        <v>36.28234792874878</v>
+        <v>36.76045654230733</v>
       </c>
       <c r="F160">
-        <v>36.20296701381331</v>
+        <v>36.20167538825513</v>
       </c>
     </row>
     <row r="161" spans="1:6">
@@ -3574,19 +3574,19 @@
         <v>159</v>
       </c>
       <c r="B161">
-        <v>36.08366885314576</v>
+        <v>36.07396547287977</v>
       </c>
       <c r="C161">
-        <v>36.07966621684786</v>
+        <v>36.2182310942032</v>
       </c>
       <c r="D161">
-        <v>36.22928136887481</v>
+        <v>36.0614699236553</v>
       </c>
       <c r="E161">
-        <v>36.14113914990012</v>
+        <v>36.6187705541286</v>
       </c>
       <c r="F161">
-        <v>36.06183756284184</v>
+        <v>36.06054722864894</v>
       </c>
     </row>
     <row r="162" spans="1:6">
@@ -3594,19 +3594,19 @@
         <v>160</v>
       </c>
       <c r="B162">
-        <v>35.94265882470183</v>
+        <v>35.93296500595752</v>
       </c>
       <c r="C162">
-        <v>35.93866000293579</v>
+        <v>36.07708708055083</v>
       </c>
       <c r="D162">
-        <v>36.08812618422532</v>
+        <v>35.92048196749334</v>
       </c>
       <c r="E162">
-        <v>36.00007151502816</v>
+        <v>36.47722613147738</v>
       </c>
       <c r="F162">
-        <v>35.92084917895524</v>
+        <v>35.91956013473367</v>
       </c>
     </row>
     <row r="163" spans="1:6">
@@ -3614,19 +3614,19 @@
         <v>161</v>
       </c>
       <c r="B163">
-        <v>35.80178972897883</v>
+        <v>35.79210547374703</v>
       </c>
       <c r="C163">
-        <v>35.7977947339958</v>
+        <v>35.93608410001119</v>
       </c>
       <c r="D163">
-        <v>35.94711205291778</v>
+        <v>35.77963493260821</v>
       </c>
       <c r="E163">
-        <v>35.85914488379547</v>
+        <v>36.33582313844401</v>
       </c>
       <c r="F163">
-        <v>35.78000172155872</v>
+        <v>35.77871396593297</v>
       </c>
     </row>
     <row r="164" spans="1:6">
@@ -3634,19 +3634,19 @@
         <v>162</v>
       </c>
       <c r="B164">
-        <v>35.66106142687417</v>
+        <v>35.65138673613652</v>
       </c>
       <c r="C164">
-        <v>35.65707026946243</v>
+        <v>35.79522201541047</v>
       </c>
       <c r="D164">
-        <v>35.80623883718714</v>
+        <v>35.63892867894462</v>
       </c>
       <c r="E164">
-        <v>35.71835911590433</v>
+        <v>36.19456143849131</v>
       </c>
       <c r="F164">
-        <v>35.63929505016801</v>
+        <v>35.63800858177895</v>
       </c>
     </row>
     <row r="165" spans="1:6">
@@ -3654,19 +3654,19 @@
         <v>163</v>
       </c>
       <c r="B165">
-        <v>35.52047377926408</v>
+        <v>35.51080865315224</v>
       </c>
       <c r="C165">
-        <v>35.51648646889524</v>
+        <v>35.65450069015488</v>
       </c>
       <c r="D165">
-        <v>35.66550639975994</v>
+        <v>35.49836306650327</v>
       </c>
       <c r="E165">
-        <v>35.57771407107764</v>
+        <v>36.05344089479464</v>
       </c>
       <c r="F165">
-        <v>35.49872902442002</v>
+        <v>35.49744384192451</v>
       </c>
     </row>
     <row r="166" spans="1:6">
@@ -3674,19 +3674,19 @@
         <v>164</v>
       </c>
       <c r="B166">
-        <v>35.38002664716354</v>
+        <v>35.37037108479449</v>
       </c>
       <c r="C166">
-        <v>35.3760431919664</v>
+        <v>35.51391998716303</v>
       </c>
       <c r="D166">
-        <v>35.52491460286975</v>
+        <v>35.35793795537096</v>
       </c>
       <c r="E166">
-        <v>35.437209609174</v>
+        <v>35.91246137039278</v>
       </c>
       <c r="F166">
-        <v>35.35830350403743</v>
+        <v>35.35701960610668</v>
       </c>
     </row>
     <row r="167" spans="1:6">
@@ -3694,19 +3694,19 @@
         <v>165</v>
       </c>
       <c r="B167">
-        <v>35.23971989134248</v>
+        <v>35.23007389121878</v>
       </c>
       <c r="C167">
-        <v>35.23574029847288</v>
+        <v>35.37347976881811</v>
       </c>
       <c r="D167">
-        <v>35.38446330844599</v>
+        <v>35.21765320571323</v>
       </c>
       <c r="E167">
-        <v>35.29684559012467</v>
+        <v>35.77162272783098</v>
       </c>
       <c r="F167">
-        <v>35.21801834889524</v>
+        <v>35.21673573421017</v>
       </c>
     </row>
     <row r="168" spans="1:6">
@@ -3714,19 +3714,19 @@
         <v>166</v>
       </c>
       <c r="B168">
-        <v>35.09955337277965</v>
+        <v>35.0899169326291</v>
       </c>
       <c r="C168">
-        <v>35.09557764833289</v>
+        <v>35.23317989789896</v>
       </c>
       <c r="D168">
-        <v>35.24415237872478</v>
+        <v>35.07750867778979</v>
       </c>
       <c r="E168">
-        <v>35.15662187396357</v>
+        <v>35.63092482978374</v>
       </c>
       <c r="F168">
-        <v>35.07787341896005</v>
+        <v>35.07659208620505</v>
       </c>
     </row>
     <row r="169" spans="1:6">
@@ -3734,19 +3734,19 @@
         <v>167</v>
       </c>
       <c r="B169">
-        <v>34.9595269524122</v>
+        <v>34.94990006932687</v>
       </c>
       <c r="C169">
-        <v>34.95555510158255</v>
+        <v>35.09302023682163</v>
       </c>
       <c r="D169">
-        <v>35.10398167561254</v>
+        <v>34.93750423195036</v>
       </c>
       <c r="E169">
-        <v>35.01653832083066</v>
+        <v>35.49036753875887</v>
       </c>
       <c r="F169">
-        <v>34.93786857432706</v>
+        <v>34.93658852219985</v>
       </c>
     </row>
     <row r="170" spans="1:6">
@@ -3754,19 +3754,19 @@
         <v>168</v>
       </c>
       <c r="B170">
-        <v>34.81964049118089</v>
+        <v>34.81002316171503</v>
       </c>
       <c r="C170">
-        <v>34.81567251839953</v>
+        <v>34.9530006478238</v>
       </c>
       <c r="D170">
-        <v>34.96395106096032</v>
+        <v>34.79763972865781</v>
       </c>
       <c r="E170">
-        <v>34.87659479097013</v>
+        <v>35.34995071675623</v>
       </c>
       <c r="F170">
-        <v>34.79800367521933</v>
+        <v>34.79672490241646</v>
       </c>
     </row>
     <row r="171" spans="1:6">
@@ -3774,19 +3774,19 @@
         <v>169</v>
       </c>
       <c r="B171">
-        <v>34.67989385012113</v>
+        <v>34.67028607030252</v>
       </c>
       <c r="C171">
-        <v>34.67592975908456</v>
+        <v>34.8131209932575</v>
       </c>
       <c r="D171">
-        <v>34.82406039670226</v>
+        <v>34.65791502846153</v>
       </c>
       <c r="E171">
-        <v>34.73679114475922</v>
+        <v>35.20967422613867</v>
       </c>
       <c r="F171">
-        <v>34.65827858197272</v>
+        <v>34.65700108720029</v>
       </c>
     </row>
     <row r="172" spans="1:6">
@@ -3794,19 +3794,19 @@
         <v>170</v>
       </c>
       <c r="B172">
-        <v>34.54028689030788</v>
+        <v>34.53068865570813</v>
       </c>
       <c r="C172">
-        <v>34.53632668405571</v>
+        <v>34.67338113532672</v>
       </c>
       <c r="D172">
-        <v>34.68430954466185</v>
+        <v>34.51832999203761</v>
       </c>
       <c r="E172">
-        <v>34.59712724266554</v>
+        <v>35.06953792898639</v>
       </c>
       <c r="F172">
-        <v>34.51869315505762</v>
+        <v>34.51741693702365</v>
       </c>
     </row>
     <row r="173" spans="1:6">
@@ -3814,19 +3814,19 @@
         <v>171</v>
       </c>
       <c r="B173">
-        <v>34.40081947289521</v>
+        <v>34.39123077865554</v>
       </c>
       <c r="C173">
-        <v>34.39686315388204</v>
+        <v>34.53378093621932</v>
       </c>
       <c r="D173">
-        <v>34.5446983666991</v>
+        <v>34.37888448015719</v>
       </c>
       <c r="E173">
-        <v>34.45760294529143</v>
+        <v>34.92954168717011</v>
       </c>
       <c r="F173">
-        <v>34.37924725506927</v>
+        <v>34.37797231248788</v>
       </c>
     </row>
     <row r="174" spans="1:6">
@@ -3834,19 +3834,19 @@
         <v>172</v>
       </c>
       <c r="B174">
-        <v>34.26149145911793</v>
+        <v>34.25191229999955</v>
       </c>
       <c r="C174">
-        <v>34.25753902924259</v>
+        <v>34.39432025816015</v>
       </c>
       <c r="D174">
-        <v>34.40522672471515</v>
+        <v>34.23957835371289</v>
       </c>
       <c r="E174">
-        <v>34.31821811336663</v>
+        <v>34.78968536274318</v>
       </c>
       <c r="F174">
-        <v>34.23994074273308</v>
+        <v>34.23866707432312</v>
       </c>
     </row>
     <row r="175" spans="1:6">
@@ -3854,19 +3854,19 @@
         <v>173</v>
       </c>
       <c r="B175">
-        <v>34.1223027102733</v>
+        <v>34.11273308070128</v>
       </c>
       <c r="C175">
-        <v>34.11835417095987</v>
+        <v>34.25499896330569</v>
       </c>
       <c r="D175">
-        <v>34.26589448056286</v>
+        <v>34.10041147371034</v>
       </c>
       <c r="E175">
-        <v>34.17897260771481</v>
+        <v>34.64996881759557</v>
       </c>
       <c r="F175">
-        <v>34.10077347890491</v>
+        <v>34.09950108338837</v>
       </c>
     </row>
     <row r="176" spans="1:6">
@@ -3874,19 +3874,19 @@
         <v>174</v>
       </c>
       <c r="B176">
-        <v>33.98325308778612</v>
+        <v>33.97369298184176</v>
       </c>
       <c r="C176">
-        <v>33.97930843998603</v>
+        <v>34.11581691388677</v>
       </c>
       <c r="D176">
-        <v>34.12670149621412</v>
+        <v>33.96138370127193</v>
       </c>
       <c r="E176">
-        <v>34.03986628931133</v>
+        <v>34.51039191361944</v>
       </c>
       <c r="F176">
-        <v>33.96174532457218</v>
+        <v>33.96047420067904</v>
       </c>
     </row>
     <row r="177" spans="1:6">
@@ -3894,19 +3894,19 @@
         <v>175</v>
       </c>
       <c r="B177">
-        <v>33.84434245314615</v>
+        <v>33.83479186463361</v>
       </c>
       <c r="C177">
-        <v>33.84040169740413</v>
+        <v>33.97677397219277</v>
       </c>
       <c r="D177">
-        <v>33.98764763368819</v>
+        <v>33.82249489764237</v>
       </c>
       <c r="E177">
-        <v>33.90089901924221</v>
+        <v>34.37095451273851</v>
       </c>
       <c r="F177">
-        <v>33.82285614085777</v>
+        <v>33.82158628731511</v>
       </c>
     </row>
     <row r="178" spans="1:6">
@@ -3914,19 +3914,19 @@
         <v>176</v>
       </c>
       <c r="B178">
-        <v>33.70557066793997</v>
+        <v>33.69602959039599</v>
       </c>
       <c r="C178">
-        <v>33.7016338044324</v>
+        <v>33.83787000041532</v>
       </c>
       <c r="D178">
-        <v>33.84873275495184</v>
+        <v>33.68374492418718</v>
       </c>
       <c r="E178">
-        <v>33.76207065872131</v>
+        <v>34.23165647686933</v>
       </c>
       <c r="F178">
-        <v>33.6841057890115</v>
+        <v>33.68283720455613</v>
       </c>
     </row>
     <row r="179" spans="1:6">
@@ -3934,19 +3934,19 @@
         <v>177</v>
       </c>
       <c r="B179">
-        <v>33.56693759388514</v>
+        <v>33.55740602058623</v>
       </c>
       <c r="C179">
-        <v>33.56300462242481</v>
+        <v>33.69910486093107</v>
       </c>
       <c r="D179">
-        <v>33.70995672215696</v>
+        <v>33.54513364239657</v>
       </c>
       <c r="E179">
-        <v>33.62338106909371</v>
+        <v>34.09249766798263</v>
       </c>
       <c r="F179">
-        <v>33.5454941304236</v>
+        <v>33.54422681379069</v>
       </c>
     </row>
     <row r="180" spans="1:6">
@@ -3954,19 +3954,19 @@
         <v>178</v>
       </c>
       <c r="B180">
-        <v>33.42844309275746</v>
+        <v>33.41892101677993</v>
       </c>
       <c r="C180">
-        <v>33.42451401287001</v>
+        <v>33.56047841613947</v>
       </c>
       <c r="D180">
-        <v>33.57131939748958</v>
+        <v>33.4066609138819</v>
       </c>
       <c r="E180">
-        <v>33.48483011183281</v>
+        <v>33.95347794808907</v>
       </c>
       <c r="F180">
-        <v>33.40702102661449</v>
+        <v>33.40575497654126</v>
       </c>
     </row>
     <row r="181" spans="1:6">
@@ -3974,19 +3974,19 @@
         <v>179</v>
       </c>
       <c r="B181">
-        <v>33.29008702647652</v>
+        <v>33.28057444068228</v>
       </c>
       <c r="C181">
-        <v>33.28616183739258</v>
+        <v>33.42199052840624</v>
       </c>
       <c r="D181">
-        <v>33.43282064313458</v>
+        <v>33.26832660038877</v>
       </c>
       <c r="E181">
-        <v>33.34641764854361</v>
+        <v>33.81459717921521</v>
       </c>
       <c r="F181">
-        <v>33.26868633923843</v>
+        <v>33.26742155446546</v>
       </c>
     </row>
     <row r="182" spans="1:6">
@@ -3994,19 +3994,19 @@
         <v>180</v>
       </c>
       <c r="B182">
-        <v>33.15186925705969</v>
+        <v>33.14236615412695</v>
       </c>
       <c r="C182">
-        <v>33.1479479577525</v>
+        <v>33.28364106026441</v>
       </c>
       <c r="D182">
-        <v>33.29446032144285</v>
+        <v>33.13013056379314</v>
       </c>
       <c r="E182">
-        <v>33.20814354096213</v>
+        <v>33.6758552235108</v>
       </c>
       <c r="F182">
-        <v>33.13048993008692</v>
+        <v>33.12922640935438</v>
       </c>
     </row>
     <row r="183" spans="1:6">
@@ -4014,19 +4014,19 @@
         <v>181</v>
       </c>
       <c r="B183">
-        <v>33.01378964663019</v>
+        <v>33.00429601907761</v>
       </c>
       <c r="C183">
-        <v>33.00987223584872</v>
+        <v>33.14542987428458</v>
       </c>
       <c r="D183">
-        <v>33.15623829481557</v>
+        <v>32.99207266607615</v>
       </c>
       <c r="E183">
-        <v>33.0700076509581</v>
+        <v>33.5372519431514</v>
       </c>
       <c r="F183">
-        <v>32.99243166108374</v>
+        <v>32.99116940313461</v>
       </c>
     </row>
     <row r="184" spans="1:6">
@@ -4034,19 +4034,19 @@
         <v>182</v>
       </c>
       <c r="B184">
-        <v>32.87584805743629</v>
+        <v>32.86636389762936</v>
       </c>
       <c r="C184">
-        <v>32.87193453371268</v>
+        <v>33.00735683308015</v>
       </c>
       <c r="D184">
-        <v>33.0181544257167</v>
+        <v>32.85415276937715</v>
       </c>
       <c r="E184">
-        <v>32.93200984053651</v>
+        <v>33.39878720036246</v>
       </c>
       <c r="F184">
-        <v>32.85451139428984</v>
+        <v>32.8532503978679</v>
       </c>
     </row>
     <row r="185" spans="1:6">
@@ -4054,19 +4054,19 @@
         <v>183</v>
       </c>
       <c r="B185">
-        <v>32.73804435183879</v>
+        <v>32.7285696520068</v>
       </c>
       <c r="C185">
-        <v>32.73413471351515</v>
+        <v>32.86942179938657</v>
       </c>
       <c r="D185">
-        <v>32.88020857673506</v>
+        <v>32.71637073596293</v>
       </c>
       <c r="E185">
-        <v>32.79414997183005</v>
+        <v>33.26046085750895</v>
       </c>
       <c r="F185">
-        <v>32.71672899190116</v>
+        <v>32.71546925575213</v>
       </c>
     </row>
     <row r="186" spans="1:6">
@@ -4074,19 +4074,19 @@
         <v>184</v>
       </c>
       <c r="B186">
-        <v>32.6003783923211</v>
+        <v>32.59091314457027</v>
       </c>
       <c r="C186">
-        <v>32.59647263756338</v>
+        <v>32.73162463600963</v>
       </c>
       <c r="D186">
-        <v>32.74240061054083</v>
+        <v>32.57872642821516</v>
       </c>
       <c r="E186">
-        <v>32.65642790711258</v>
+        <v>33.12227277697477</v>
       </c>
       <c r="F186">
-        <v>32.57908431624978</v>
+        <v>32.57782583912159</v>
       </c>
     </row>
     <row r="187" spans="1:6">
@@ -4094,19 +4094,19 @@
         <v>185</v>
       </c>
       <c r="B187">
-        <v>32.46285004148922</v>
+        <v>32.45339423780968</v>
       </c>
       <c r="C187">
-        <v>32.45894816829897</v>
+        <v>32.59396520583973</v>
       </c>
       <c r="D187">
-        <v>32.60473038990056</v>
+        <v>32.4412197086497</v>
       </c>
       <c r="E187">
-        <v>32.51884350878836</v>
+        <v>32.9842228212549</v>
       </c>
       <c r="F187">
-        <v>32.44157722980394</v>
+        <v>32.44032001044394</v>
       </c>
     </row>
     <row r="188" spans="1:6">
@@ -4114,19 +4114,19 @@
         <v>186</v>
       </c>
       <c r="B188">
-        <v>32.3254591620668</v>
+        <v>32.31601279434903</v>
       </c>
       <c r="C188">
-        <v>32.32156116830249</v>
+        <v>32.4564433718765</v>
       </c>
       <c r="D188">
-        <v>32.46719777769467</v>
+        <v>32.30385043993146</v>
       </c>
       <c r="E188">
-        <v>32.3813966393955</v>
+        <v>32.84631085294478</v>
       </c>
       <c r="F188">
-        <v>32.30420759516794</v>
+        <v>32.30295163232564</v>
       </c>
     </row>
     <row r="189" spans="1:6">
@@ -4134,19 +4134,19 @@
         <v>187</v>
       </c>
       <c r="B189">
-        <v>32.18820561691064</v>
+        <v>32.17876867694613</v>
       </c>
       <c r="C189">
-        <v>32.18431150029028</v>
+        <v>32.31905899720703</v>
       </c>
       <c r="D189">
-        <v>32.32980263689925</v>
+        <v>32.16661848484866</v>
       </c>
       <c r="E189">
-        <v>32.24408716160992</v>
+        <v>32.70853673470761</v>
       </c>
       <c r="F189">
-        <v>32.16697527508332</v>
+        <v>32.1657205675108</v>
       </c>
     </row>
     <row r="190" spans="1:6">
@@ -4154,19 +4154,19 @@
         <v>188</v>
       </c>
       <c r="B190">
-        <v>32.05108926899706</v>
+        <v>32.04166174848857</v>
       </c>
       <c r="C190">
-        <v>32.04719902711571</v>
+        <v>32.18181194502019</v>
       </c>
       <c r="D190">
-        <v>32.19254483060145</v>
+        <v>32.02952370630659</v>
       </c>
       <c r="E190">
-        <v>32.10691493823966</v>
+        <v>32.57090032932523</v>
       </c>
       <c r="F190">
-        <v>32.02988013242677</v>
+        <v>32.02862667887823</v>
       </c>
     </row>
     <row r="191" spans="1:6">
@@ -4174,19 +4174,19 @@
         <v>189</v>
       </c>
       <c r="B191">
-        <v>31.91410998142823</v>
+        <v>31.90469187200386</v>
       </c>
       <c r="C191">
-        <v>31.91022361176913</v>
+        <v>32.04470207862345</v>
       </c>
       <c r="D191">
-        <v>32.05542422201005</v>
+        <v>31.89256596736568</v>
       </c>
       <c r="E191">
-        <v>31.96987983222994</v>
+        <v>32.43340149967545</v>
       </c>
       <c r="F191">
-        <v>31.89292203021276</v>
+        <v>31.89166982943946</v>
       </c>
     </row>
     <row r="192" spans="1:6">
@@ -4194,19 +4194,19 @@
         <v>190</v>
       </c>
       <c r="B192">
-        <v>31.77726761744008</v>
+        <v>31.76785891065414</v>
       </c>
       <c r="C192">
-        <v>31.77338511737807</v>
+        <v>31.90772926141081</v>
       </c>
       <c r="D192">
-        <v>31.91844067442744</v>
+        <v>31.75574513121363</v>
       </c>
       <c r="E192">
-        <v>31.83298170666097</v>
+        <v>32.29604010873814</v>
       </c>
       <c r="F192">
-        <v>31.7561008315914</v>
+        <v>31.75484988234954</v>
       </c>
     </row>
     <row r="193" spans="1:6">
@@ -4214,19 +4214,19 @@
         <v>191</v>
       </c>
       <c r="B193">
-        <v>31.64056204038707</v>
+        <v>31.63116272772785</v>
       </c>
       <c r="C193">
-        <v>31.63668340720707</v>
+        <v>31.77089335689511</v>
       </c>
       <c r="D193">
-        <v>31.78159405128237</v>
+        <v>31.6190610611633</v>
       </c>
       <c r="E193">
-        <v>31.69622042474881</v>
+        <v>32.15881601960945</v>
       </c>
       <c r="F193">
-        <v>31.61941639984885</v>
+        <v>31.61816670089867</v>
       </c>
     </row>
     <row r="194" spans="1:6">
@@ -4234,19 +4234,19 @@
         <v>192</v>
       </c>
       <c r="B194">
-        <v>31.50399311376002</v>
+        <v>31.49460318665503</v>
       </c>
       <c r="C194">
-        <v>31.50011834465748</v>
+        <v>31.63419422870967</v>
       </c>
       <c r="D194">
-        <v>31.64488421612591</v>
+        <v>31.48251362067004</v>
       </c>
       <c r="E194">
-        <v>31.55959584984566</v>
+        <v>32.02172909548992</v>
       </c>
       <c r="F194">
-        <v>31.48286859840956</v>
+        <v>31.48162014850725</v>
       </c>
     </row>
     <row r="195" spans="1:6">
@@ -4254,19 +4254,19 @@
         <v>193</v>
       </c>
       <c r="B195">
-        <v>31.36756070117668</v>
+        <v>31.35818015100426</v>
       </c>
       <c r="C195">
-        <v>31.36368979326792</v>
+        <v>31.4976317405774</v>
       </c>
       <c r="D195">
-        <v>31.50831103260557</v>
+        <v>31.34610267332156</v>
       </c>
       <c r="E195">
-        <v>31.42310784543924</v>
+        <v>31.8847791996932</v>
       </c>
       <c r="F195">
-        <v>31.34645729083477</v>
+        <v>31.34521008873869</v>
       </c>
     </row>
     <row r="196" spans="1:6">
@@ -4274,19 +4274,19 @@
         <v>194</v>
       </c>
       <c r="B196">
-        <v>31.23126466638319</v>
+        <v>31.2218934844774</v>
       </c>
       <c r="C196">
-        <v>31.22739761671391</v>
+        <v>31.36120575635373</v>
       </c>
       <c r="D196">
-        <v>31.37187436450592</v>
+        <v>31.20982808283916</v>
       </c>
       <c r="E196">
-        <v>31.28675627515423</v>
+        <v>31.7479661956585</v>
       </c>
       <c r="F196">
-        <v>31.2101823408185</v>
+        <v>31.20893638529186</v>
       </c>
     </row>
     <row r="197" spans="1:6">
@@ -4294,19 +4294,19 @@
         <v>195</v>
       </c>
       <c r="B197">
-        <v>31.09510487325884</v>
+        <v>31.08574305089899</v>
       </c>
       <c r="C197">
-        <v>31.09124167880672</v>
+        <v>31.22491614000831</v>
       </c>
       <c r="D197">
-        <v>31.23557407572828</v>
+        <v>31.07368971307901</v>
       </c>
       <c r="E197">
-        <v>31.15054100275043</v>
+        <v>31.61128994692396</v>
       </c>
       <c r="F197">
-        <v>31.07404361219525</v>
+        <v>31.07279890200086</v>
       </c>
     </row>
     <row r="198" spans="1:6">
@@ -4314,19 +4314,19 @@
         <v>196</v>
       </c>
       <c r="B198">
-        <v>30.9590811858125</v>
+        <v>30.94972871424626</v>
       </c>
       <c r="C198">
-        <v>30.95522184349619</v>
+        <v>31.088762755617</v>
       </c>
       <c r="D198">
-        <v>31.09941003028614</v>
+        <v>30.93768742803333</v>
       </c>
       <c r="E198">
-        <v>31.01446189212325</v>
+        <v>31.47475031715896</v>
       </c>
       <c r="F198">
-        <v>30.93804096893634</v>
+        <v>30.93679750283542</v>
       </c>
     </row>
     <row r="199" spans="1:6">
@@ -4334,19 +4334,19 @@
         <v>197</v>
       </c>
       <c r="B199">
-        <v>30.82319346818551</v>
+        <v>30.81385033862755</v>
       </c>
       <c r="C199">
-        <v>30.8193379748689</v>
+        <v>30.95274546738564</v>
       </c>
       <c r="D199">
-        <v>30.96338209232487</v>
+        <v>30.80182109182885</v>
       </c>
       <c r="E199">
-        <v>30.87851880730645</v>
+        <v>31.33834717015287</v>
       </c>
       <c r="F199">
-        <v>30.802174275149</v>
+        <v>30.80093205190379</v>
       </c>
     </row>
     <row r="200" spans="1:6">
@@ -4354,19 +4354,19 @@
         <v>198</v>
       </c>
       <c r="B200">
-        <v>30.68744158465161</v>
+        <v>30.67810778828138</v>
       </c>
       <c r="C200">
-        <v>30.68358993714678</v>
+        <v>30.8168641396372</v>
       </c>
       <c r="D200">
-        <v>30.82749012611064</v>
+        <v>30.66609056872548</v>
       </c>
       <c r="E200">
-        <v>30.74271161247026</v>
+        <v>31.2020803698029</v>
       </c>
       <c r="F200">
-        <v>30.6664433950725</v>
+        <v>30.66520241344994</v>
       </c>
     </row>
     <row r="201" spans="1:6">
@@ -4374,19 +4374,19 @@
         <v>199</v>
       </c>
       <c r="B201">
-        <v>30.55182539961529</v>
+        <v>30.54250092758167</v>
       </c>
       <c r="C201">
-        <v>30.54797759468788</v>
+        <v>30.6811186368121</v>
       </c>
       <c r="D201">
-        <v>30.69173399603096</v>
+        <v>30.5304957231216</v>
       </c>
       <c r="E201">
-        <v>30.60704017191685</v>
+        <v>31.06594978014084</v>
       </c>
       <c r="F201">
-        <v>30.53084819308871</v>
+        <v>30.52960845185358</v>
       </c>
     </row>
     <row r="202" spans="1:6">
@@ -4394,19 +4394,19 @@
         <v>200</v>
       </c>
       <c r="B202">
-        <v>30.41634477761595</v>
+        <v>30.40702962104373</v>
       </c>
       <c r="C202">
-        <v>30.41250081198957</v>
+        <v>30.54550882347876</v>
       </c>
       <c r="D202">
-        <v>30.55611356660311</v>
+        <v>30.39503641955052</v>
       </c>
       <c r="E202">
-        <v>30.47150435008701</v>
+        <v>30.92995526531697</v>
       </c>
       <c r="F202">
-        <v>30.39538853371423</v>
+        <v>30.39415003163158</v>
       </c>
     </row>
     <row r="203" spans="1:6">
@@ -4414,19 +4414,19 @@
         <v>201</v>
       </c>
       <c r="B203">
-        <v>30.2809995833245</v>
+        <v>30.27169373331628</v>
       </c>
       <c r="C203">
-        <v>30.27715945368523</v>
+        <v>30.41003456432694</v>
       </c>
       <c r="D203">
-        <v>30.42062870246875</v>
+        <v>30.25971252267635</v>
       </c>
       <c r="E203">
-        <v>30.33610401156034</v>
+        <v>30.79409668960269</v>
       </c>
       <c r="F203">
-        <v>30.26006428160037</v>
+        <v>30.25882701743696</v>
       </c>
     </row>
     <row r="204" spans="1:6">
@@ -4434,19 +4434,19 @@
         <v>202</v>
       </c>
       <c r="B204">
-        <v>30.14578968154468</v>
+        <v>30.13649312917931</v>
       </c>
       <c r="C204">
-        <v>30.14195338454176</v>
+        <v>30.27469572416809</v>
       </c>
       <c r="D204">
-        <v>30.28527926839417</v>
+        <v>30.12452389730291</v>
       </c>
       <c r="E204">
-        <v>30.20083902105226</v>
+        <v>30.65837391739883</v>
       </c>
       <c r="F204">
-        <v>30.1248753015341</v>
+        <v>30.12363927405872</v>
       </c>
     </row>
     <row r="205" spans="1:6">
@@ -4454,19 +4454,19 @@
         <v>203</v>
       </c>
       <c r="B205">
-        <v>30.01071493721506</v>
+        <v>30.00142767355303</v>
       </c>
       <c r="C205">
-        <v>30.00688246946418</v>
+        <v>30.13949216794401</v>
       </c>
       <c r="D205">
-        <v>30.15006512927743</v>
+        <v>29.98947040836875</v>
       </c>
       <c r="E205">
-        <v>30.06570924340673</v>
+        <v>30.52278681322956</v>
       </c>
       <c r="F205">
-        <v>29.98982145844089</v>
+        <v>29.98858666642213</v>
       </c>
     </row>
     <row r="206" spans="1:6">
@@ -4474,19 +4474,19 @@
         <v>204</v>
       </c>
       <c r="B206">
-        <v>29.8757752154054</v>
+        <v>29.86649723149169</v>
       </c>
       <c r="C206">
-        <v>29.87194657349487</v>
+        <v>30.00442376071898</v>
       </c>
       <c r="D206">
-        <v>30.01498615014178</v>
+        <v>29.85455192094592</v>
       </c>
       <c r="E206">
-        <v>29.93071454361118</v>
+        <v>30.38733524174627</v>
       </c>
       <c r="F206">
-        <v>29.85490261738144</v>
+        <v>29.85366905958896</v>
       </c>
     </row>
     <row r="207" spans="1:6">
@@ -4494,19 +4494,19 @@
         <v>205</v>
       </c>
       <c r="B207">
-        <v>29.74097038132083</v>
+        <v>29.73170166818496</v>
       </c>
       <c r="C207">
-        <v>29.73714556181194</v>
+        <v>29.86949036768232</v>
       </c>
       <c r="D207">
-        <v>29.88004219613757</v>
+        <v>29.71976830024131</v>
       </c>
       <c r="E207">
-        <v>29.7958547867882</v>
+        <v>30.25201906772961</v>
       </c>
       <c r="F207">
-        <v>29.72011864355137</v>
+        <v>29.71888631875689</v>
       </c>
     </row>
     <row r="208" spans="1:6">
@@ -4514,19 +4514,19 @@
         <v>206</v>
       </c>
       <c r="B208">
-        <v>29.60630030029951</v>
+        <v>29.59704084895785</v>
       </c>
       <c r="C208">
-        <v>29.60247929972709</v>
+        <v>29.73469185415493</v>
       </c>
       <c r="D208">
-        <v>29.74523313254801</v>
+        <v>29.58511941159879</v>
       </c>
       <c r="E208">
-        <v>29.66112983819582</v>
+        <v>30.11683815608038</v>
       </c>
       <c r="F208">
-        <v>29.58546940228312</v>
+        <v>29.58423830925866</v>
       </c>
     </row>
     <row r="209" spans="1:6">
@@ -4534,19 +4534,19 @@
         <v>207</v>
       </c>
       <c r="B209">
-        <v>29.47176483781294</v>
+        <v>29.46251463927132</v>
       </c>
       <c r="C209">
-        <v>29.46794765269055</v>
+        <v>29.60002808558109</v>
       </c>
       <c r="D209">
-        <v>29.61055882478215</v>
+        <v>29.45060512049651</v>
       </c>
       <c r="E209">
-        <v>29.52653956322303</v>
+        <v>29.9817923718366</v>
       </c>
       <c r="F209">
-        <v>29.4509547590449</v>
+        <v>29.44972489656406</v>
       </c>
     </row>
     <row r="210" spans="1:6">
@@ -4554,19 +4554,19 @@
         <v>208</v>
       </c>
       <c r="B210">
-        <v>29.33736385946722</v>
+        <v>29.32812290472178</v>
       </c>
       <c r="C210">
-        <v>29.33355048628777</v>
+        <v>29.46549892753379</v>
       </c>
       <c r="D210">
-        <v>29.47601913837898</v>
+        <v>29.31622529254688</v>
       </c>
       <c r="E210">
-        <v>29.3920838274002</v>
+        <v>29.84688158016539</v>
       </c>
       <c r="F210">
-        <v>29.31657457944058</v>
+        <v>29.31534594627843</v>
       </c>
     </row>
     <row r="211" spans="1:6">
@@ -4574,19 +4574,19 @@
         <v>209</v>
       </c>
       <c r="B211">
-        <v>29.20309723100185</v>
+        <v>29.19386551104025</v>
       </c>
       <c r="C211">
-        <v>29.19928766623987</v>
+        <v>29.33110424571667</v>
       </c>
       <c r="D211">
-        <v>29.34161393900947</v>
+        <v>29.18197979349838</v>
       </c>
       <c r="E211">
-        <v>29.25776249639152</v>
+        <v>29.71210564636591</v>
       </c>
       <c r="F211">
-        <v>29.18232872920967</v>
+        <v>29.18110132414212</v>
       </c>
     </row>
     <row r="212" spans="1:6">
@@ -4594,19 +4594,19 @@
         <v>210</v>
       </c>
       <c r="B212">
-        <v>29.06896481829059</v>
+        <v>29.05974232409385</v>
       </c>
       <c r="C212">
-        <v>29.06515905840329</v>
+        <v>29.196843905959</v>
       </c>
       <c r="D212">
-        <v>29.20734309247228</v>
+        <v>29.04786848923417</v>
       </c>
       <c r="E212">
-        <v>29.12357543599653</v>
+        <v>29.57746443584677</v>
       </c>
       <c r="F212">
-        <v>29.04821707422737</v>
+        <v>29.04699089603144</v>
       </c>
     </row>
     <row r="213" spans="1:6">
@@ -4614,19 +4614,19 @@
         <v>211</v>
       </c>
       <c r="B213">
-        <v>28.93496648734138</v>
+        <v>28.92575320988521</v>
       </c>
       <c r="C213">
-        <v>28.93116452877049</v>
+        <v>29.06271777422108</v>
       </c>
       <c r="D213">
-        <v>29.07320646469779</v>
+        <v>28.91389124577231</v>
       </c>
       <c r="E213">
-        <v>28.98952251214948</v>
+        <v>29.44295781416775</v>
       </c>
       <c r="F213">
-        <v>28.9142394805044</v>
+        <v>28.91301452795843</v>
       </c>
     </row>
     <row r="214" spans="1:6">
@@ -4634,19 +4634,19 @@
         <v>212</v>
       </c>
       <c r="B214">
-        <v>28.80110210429573</v>
+        <v>28.79189803455193</v>
       </c>
       <c r="C214">
-        <v>28.79730394346926</v>
+        <v>28.92872571659309</v>
       </c>
       <c r="D214">
-        <v>28.9392039217477</v>
+        <v>28.7800479292659</v>
       </c>
       <c r="E214">
-        <v>28.855603590921</v>
+        <v>29.30858564702034</v>
       </c>
       <c r="F214">
-        <v>28.78039581418681</v>
+        <v>28.77917208607033</v>
       </c>
     </row>
     <row r="215" spans="1:6">
@@ -4654,19 +4654,19 @@
         <v>213</v>
       </c>
       <c r="B215">
-        <v>28.66737153542987</v>
+        <v>28.6581766643653</v>
       </c>
       <c r="C215">
-        <v>28.66357716876283</v>
+        <v>28.7948675992913</v>
       </c>
       <c r="D215">
-        <v>28.80533532981159</v>
+        <v>28.64633840600304</v>
       </c>
       <c r="E215">
-        <v>28.72181853851667</v>
+        <v>29.17434780022757</v>
       </c>
       <c r="F215">
-        <v>28.64668594155595</v>
+        <v>28.6454634366495</v>
       </c>
     </row>
     <row r="216" spans="1:6">
@@ -4674,19 +4674,19 @@
         <v>214</v>
       </c>
       <c r="B216">
-        <v>28.53377464715376</v>
+        <v>28.52458896573367</v>
       </c>
       <c r="C216">
-        <v>28.52998407104989</v>
+        <v>28.66114328866638</v>
       </c>
       <c r="D216">
-        <v>28.67160055521358</v>
+        <v>28.51276254240643</v>
       </c>
       <c r="E216">
-        <v>28.58816722127736</v>
+        <v>29.040244139721</v>
       </c>
       <c r="F216">
-        <v>28.51310972902865</v>
+        <v>28.51188844611379</v>
       </c>
     </row>
     <row r="217" spans="1:6">
@@ -4694,19 +4694,19 @@
         <v>215</v>
       </c>
       <c r="B217">
-        <v>28.40031130601136</v>
+        <v>28.39113480519982</v>
       </c>
       <c r="C217">
-        <v>28.39652451686416</v>
+        <v>28.52755265119903</v>
       </c>
       <c r="D217">
-        <v>28.53799946440895</v>
+        <v>28.37932020503354</v>
       </c>
       <c r="E217">
-        <v>28.45464950567921</v>
+        <v>28.90627453157933</v>
       </c>
       <c r="F217">
-        <v>28.37966704315691</v>
+        <v>28.37844698101611</v>
       </c>
     </row>
     <row r="218" spans="1:6">
@@ -4714,19 +4714,19 @@
         <v>216</v>
       </c>
       <c r="B218">
-        <v>28.2669813786811</v>
+        <v>28.25781404944065</v>
       </c>
       <c r="C218">
-        <v>28.26319837287458</v>
+        <v>28.3940955535016</v>
       </c>
       <c r="D218">
-        <v>28.40453192398535</v>
+        <v>28.2460112605769</v>
       </c>
       <c r="E218">
-        <v>28.32126525833328</v>
+        <v>28.77243884202092</v>
       </c>
       <c r="F218">
-        <v>28.24635775062722</v>
+        <v>28.2451389080444</v>
       </c>
     </row>
     <row r="219" spans="1:6">
@@ -4734,19 +4734,19 @@
         <v>217</v>
       </c>
       <c r="B219">
-        <v>28.13378473197494</v>
+        <v>28.124626565268</v>
       </c>
       <c r="C219">
-        <v>28.13000550588506</v>
+        <v>28.26077186230992</v>
       </c>
       <c r="D219">
-        <v>28.27119780065697</v>
+        <v>28.11283557586355</v>
       </c>
       <c r="E219">
-        <v>28.18801434598576</v>
+        <v>28.63873693739219</v>
       </c>
       <c r="F219">
-        <v>28.11318171826154</v>
+        <v>28.11196409402155</v>
       </c>
     </row>
     <row r="220" spans="1:6">
@@ -4754,19 +4754,19 @@
         <v>218</v>
       </c>
       <c r="B220">
-        <v>28.00072123283928</v>
+        <v>27.99157221962899</v>
       </c>
       <c r="C220">
-        <v>27.99694578283446</v>
+        <v>28.1275814444964</v>
       </c>
       <c r="D220">
-        <v>28.13799696127257</v>
+        <v>27.97979301785442</v>
       </c>
       <c r="E220">
-        <v>28.05489663551752</v>
+        <v>28.50516868415879</v>
       </c>
       <c r="F220">
-        <v>27.98013881301665</v>
+        <v>27.97892240590533</v>
       </c>
     </row>
     <row r="221" spans="1:6">
@@ -4774,19 +4774,19 @@
         <v>219</v>
       </c>
       <c r="B221">
-        <v>27.86779074835439</v>
+        <v>27.85865087960509</v>
       </c>
       <c r="C221">
-        <v>27.86401907079655</v>
+        <v>27.99452416706801</v>
       </c>
       <c r="D221">
-        <v>28.00492927281692</v>
+        <v>27.84688345364582</v>
       </c>
       <c r="E221">
-        <v>27.92191199394433</v>
+        <v>28.37173394892161</v>
       </c>
       <c r="F221">
-        <v>27.84722890198405</v>
+        <v>27.84601371078824</v>
       </c>
     </row>
     <row r="222" spans="1:6">
@@ -4794,19 +4794,19 @@
         <v>220</v>
       </c>
       <c r="B222">
-        <v>27.73499314573436</v>
+        <v>27.72586241241199</v>
       </c>
       <c r="C222">
-        <v>27.73122523697985</v>
+        <v>27.86159989716248</v>
       </c>
       <c r="D222">
-        <v>27.87199460240597</v>
+        <v>27.71410675046821</v>
       </c>
       <c r="E222">
-        <v>27.78906028841693</v>
+        <v>28.23843259842402</v>
       </c>
       <c r="F222">
-        <v>27.71445185238957</v>
+        <v>27.71323787589751</v>
       </c>
     </row>
     <row r="223" spans="1:6">
@@ -4814,19 +4814,19 @@
         <v>221</v>
       </c>
       <c r="B223">
-        <v>27.60232829232745</v>
+        <v>27.59320668540018</v>
       </c>
       <c r="C223">
-        <v>27.59856414872727</v>
+        <v>27.72880850204355</v>
       </c>
       <c r="D223">
-        <v>27.73919281728474</v>
+        <v>27.58146277568595</v>
       </c>
       <c r="E223">
-        <v>27.65634138622064</v>
+        <v>28.10526449953695</v>
       </c>
       <c r="F223">
-        <v>27.581807531594</v>
+        <v>27.58059476859492</v>
       </c>
     </row>
     <row r="224" spans="1:6">
@@ -4834,19 +4834,19 @@
         <v>222</v>
       </c>
       <c r="B224">
-        <v>27.46979605561562</v>
+        <v>27.46068356605439</v>
       </c>
       <c r="C224">
-        <v>27.46603567351642</v>
+        <v>27.59614984910204</v>
       </c>
       <c r="D224">
-        <v>27.6065237848239</v>
+        <v>27.44895139679798</v>
       </c>
       <c r="E224">
-        <v>27.5237551547747</v>
+        <v>27.97222951926018</v>
       </c>
       <c r="F224">
-        <v>27.44929580709249</v>
+        <v>27.4480842563768</v>
       </c>
     </row>
     <row r="225" spans="1:6">
@@ -4854,19 +4854,19 @@
         <v>223</v>
       </c>
       <c r="B225">
-        <v>27.33739630321473</v>
+        <v>27.32829292199369</v>
       </c>
       <c r="C225">
-        <v>27.33363967895938</v>
+        <v>27.46362380587384</v>
       </c>
       <c r="D225">
-        <v>27.47398737253939</v>
+        <v>27.31657248143746</v>
       </c>
       <c r="E225">
-        <v>27.3913014616333</v>
+        <v>27.83932752472464</v>
       </c>
       <c r="F225">
-        <v>27.31691654651453</v>
+        <v>27.3157062068737</v>
       </c>
     </row>
     <row r="226" spans="1:6">
@@ -4874,19 +4874,19 @@
         <v>224</v>
       </c>
       <c r="B226">
-        <v>27.20512890287451</v>
+        <v>27.19603462097141</v>
       </c>
       <c r="C226">
-        <v>27.20137603280256</v>
+        <v>27.33123024002213</v>
       </c>
       <c r="D226">
-        <v>27.34158344807527</v>
+        <v>27.18432589737149</v>
       </c>
       <c r="E226">
-        <v>27.258980174485</v>
+        <v>27.70655838319895</v>
       </c>
       <c r="F226">
-        <v>27.18466961762393</v>
+        <v>27.18346048785066</v>
       </c>
     </row>
     <row r="227" spans="1:6">
@@ -4894,19 +4894,19 @@
         <v>225</v>
       </c>
       <c r="B227">
-        <v>27.07299372247825</v>
+        <v>27.06390853087493</v>
       </c>
       <c r="C227">
-        <v>27.06924460292646</v>
+        <v>27.19896901934115</v>
       </c>
       <c r="D227">
-        <v>27.20931187920838</v>
+        <v>27.05221151250116</v>
       </c>
       <c r="E227">
-        <v>27.12679116115258</v>
+        <v>27.57392196208214</v>
       </c>
       <c r="F227">
-        <v>27.05255488831867</v>
+        <v>27.05134696720685</v>
       </c>
     </row>
     <row r="228" spans="1:6">
@@ -4914,19 +4914,19 @@
         <v>226</v>
       </c>
       <c r="B228">
-        <v>26.9409906300431</v>
+        <v>26.93191451972572</v>
       </c>
       <c r="C228">
-        <v>26.93724525734586</v>
+        <v>27.06684001174586</v>
       </c>
       <c r="D228">
-        <v>27.07717253383662</v>
+        <v>26.92022919486157</v>
       </c>
       <c r="E228">
-        <v>26.99473428959251</v>
+        <v>27.4414181289054</v>
       </c>
       <c r="F228">
-        <v>26.9205722266308</v>
+        <v>26.91936551297553</v>
       </c>
     </row>
     <row r="229" spans="1:6">
@@ -4934,19 +4934,19 @@
         <v>227</v>
       </c>
       <c r="B229">
-        <v>26.80911949371973</v>
+        <v>26.80005245567919</v>
       </c>
       <c r="C229">
-        <v>26.80537786420952</v>
+        <v>26.93484308529846</v>
       </c>
       <c r="D229">
-        <v>26.94516528000434</v>
+        <v>26.78837881262164</v>
       </c>
       <c r="E229">
-        <v>26.86280942789576</v>
+        <v>27.30904675133199</v>
       </c>
       <c r="F229">
-        <v>26.78872150072654</v>
+        <v>26.78751599332398</v>
       </c>
     </row>
     <row r="230" spans="1:6">
@@ -4954,19 +4954,19 @@
         <v>228</v>
       </c>
       <c r="B230">
-        <v>26.67738018179236</v>
+        <v>26.66832220702465</v>
       </c>
       <c r="C230">
-        <v>26.67364229180019</v>
+        <v>26.80297810818801</v>
       </c>
       <c r="D230">
-        <v>26.81328998588367</v>
+        <v>26.65666023408409</v>
       </c>
       <c r="E230">
-        <v>26.73101644428712</v>
+        <v>27.17680769715941</v>
       </c>
       <c r="F230">
-        <v>26.65700257890592</v>
+        <v>26.65579827655343</v>
       </c>
     </row>
     <row r="231" spans="1:6">
@@ -4974,19 +4974,19 @@
         <v>229</v>
       </c>
       <c r="B231">
-        <v>26.5457725626788</v>
+        <v>26.53672364218525</v>
       </c>
       <c r="C231">
-        <v>26.54203840853459</v>
+        <v>26.67124494873585</v>
       </c>
       <c r="D231">
-        <v>26.68154651977937</v>
+        <v>26.52507332768531</v>
       </c>
       <c r="E231">
-        <v>26.59935520712525</v>
+        <v>27.04470083431759</v>
       </c>
       <c r="F231">
-        <v>26.5254153296028</v>
+        <v>26.52421223109892</v>
       </c>
     </row>
     <row r="232" spans="1:6">
@@ -4994,19 +4994,19 @@
         <v>230</v>
       </c>
       <c r="B232">
-        <v>26.41429650493019</v>
+        <v>26.40525662971781</v>
       </c>
       <c r="C232">
-        <v>26.41056608296303</v>
+        <v>26.53964347539011</v>
       </c>
       <c r="D232">
-        <v>26.54993475012533</v>
+        <v>26.39361796199533</v>
       </c>
       <c r="E232">
-        <v>26.4678255849027</v>
+        <v>26.91272603086879</v>
       </c>
       <c r="F232">
-        <v>26.39395962138478</v>
+        <v>26.39275772552928</v>
       </c>
     </row>
     <row r="233" spans="1:6">
@@ -5014,19 +5014,19 @@
         <v>231</v>
       </c>
       <c r="B233">
-        <v>26.28295187723107</v>
+        <v>26.27392103831261</v>
       </c>
       <c r="C233">
-        <v>26.27922518376955</v>
+        <v>26.40817355673601</v>
       </c>
       <c r="D233">
-        <v>26.41845454548978</v>
+        <v>26.26229400571768</v>
       </c>
       <c r="E233">
-        <v>26.33642744624553</v>
+        <v>26.78088315500614</v>
       </c>
       <c r="F233">
-        <v>26.26263532295324</v>
+        <v>26.26143462854693</v>
       </c>
     </row>
     <row r="234" spans="1:6">
@@ -5034,19 +5034,19 @@
         <v>232</v>
       </c>
       <c r="B234">
-        <v>26.15173854839927</v>
+        <v>26.14271673679369</v>
       </c>
       <c r="C234">
-        <v>26.14801557977185</v>
+        <v>26.27683506149016</v>
       </c>
       <c r="D234">
-        <v>26.28710577457442</v>
+        <v>26.13110132768937</v>
       </c>
       <c r="E234">
-        <v>26.20516065991346</v>
+        <v>26.64917207505886</v>
       </c>
       <c r="F234">
-        <v>26.13144230314299</v>
+        <v>26.13024280898787</v>
       </c>
     </row>
     <row r="235" spans="1:6">
@@ -5054,19 +5054,19 @@
         <v>233</v>
       </c>
       <c r="B235">
-        <v>26.02065638738583</v>
+        <v>26.01164359411847</v>
       </c>
       <c r="C235">
-        <v>26.01693713992121</v>
+        <v>26.14562785850082</v>
       </c>
       <c r="D235">
-        <v>26.15588830621251</v>
+        <v>26.00003979688081</v>
       </c>
       <c r="E235">
-        <v>26.07402509479978</v>
+        <v>26.51759265948811</v>
       </c>
       <c r="F235">
-        <v>26.00038043092237</v>
+        <v>25.99918213582164</v>
       </c>
     </row>
     <row r="236" spans="1:6">
@@ -5074,19 +5074,19 @@
         <v>234</v>
       </c>
       <c r="B236">
-        <v>25.889705263275</v>
+        <v>25.88070147937765</v>
       </c>
       <c r="C236">
-        <v>25.88598973330217</v>
+        <v>26.01455181674747</v>
       </c>
       <c r="D236">
-        <v>26.02480200936929</v>
+        <v>25.86910928239562</v>
       </c>
       <c r="E236">
-        <v>25.94302061993136</v>
+        <v>26.38614477688743</v>
       </c>
       <c r="F236">
-        <v>25.86944957539313</v>
+        <v>25.86825247815113</v>
       </c>
     </row>
     <row r="237" spans="1:6">
@@ -5094,19 +5094,19 @@
         <v>235</v>
       </c>
       <c r="B237">
-        <v>25.7588850452841</v>
+        <v>25.74989026179522</v>
       </c>
       <c r="C237">
-        <v>25.75517322913264</v>
+        <v>25.88360680534174</v>
       </c>
       <c r="D237">
-        <v>25.89384675314188</v>
+        <v>25.73830965347064</v>
       </c>
       <c r="E237">
-        <v>25.81214710446818</v>
+        <v>26.25482829597934</v>
       </c>
       <c r="F237">
-        <v>25.73864960579031</v>
+        <v>25.73745370521252</v>
       </c>
     </row>
     <row r="238" spans="1:6">
@@ -5114,19 +5114,19 @@
         <v>236</v>
       </c>
       <c r="B238">
-        <v>25.62819560276347</v>
+        <v>25.61920981072841</v>
       </c>
       <c r="C238">
-        <v>25.62448749676384</v>
+        <v>25.75279269352822</v>
       </c>
       <c r="D238">
-        <v>25.76302240676075</v>
+        <v>25.60764077947594</v>
       </c>
       <c r="E238">
-        <v>25.68140441770357</v>
+        <v>26.12364308562423</v>
       </c>
       <c r="F238">
-        <v>25.60798039148215</v>
+        <v>25.60678568637522</v>
       </c>
     </row>
   </sheetData>
